--- a/BackTest/2020-01-19 BackTest LTC.xlsx
+++ b/BackTest/2020-01-19 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>491.4435</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>615.7919999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>67900</v>
@@ -523,7 +523,7 @@
         <v>624.9915999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>68100</v>
@@ -562,11 +562,9 @@
         <v>612.2364</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>68200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -1267,7 +1265,7 @@
         <v>2815.71999639</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1452,7 +1450,7 @@
         <v>2758.09679639</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1489,7 +1487,7 @@
         <v>2777.16629639</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1526,7 +1524,7 @@
         <v>2761.86119639</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1563,7 +1561,7 @@
         <v>2798.75829639</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1711,7 +1709,7 @@
         <v>2715.12699639</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1785,7 +1783,7 @@
         <v>2791.35539639</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1822,7 +1820,7 @@
         <v>2791.47529639</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1859,7 +1857,7 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1896,7 +1894,7 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1933,7 +1931,7 @@
         <v>2759.823896390001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1970,7 +1968,7 @@
         <v>2803.593396390001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2821,18 +2819,16 @@
         <v>2758.522573680001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2858,15 +2854,11 @@
         <v>2760.352973680001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2895,15 +2887,11 @@
         <v>2754.988773680001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2932,15 +2920,11 @@
         <v>2951.905473680001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2969,16 +2953,14 @@
         <v>1442.210773680001</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3004,7 +2986,7 @@
         <v>1654.363873680001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3037,7 +3019,7 @@
         <v>2185.305773680001</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3070,7 +3052,7 @@
         <v>2404.181173680001</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3103,7 +3085,7 @@
         <v>2404.181173680001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3367,7 +3349,7 @@
         <v>2350.212573680001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3400,7 +3382,7 @@
         <v>2350.212573680001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3466,7 +3448,7 @@
         <v>2282.864973680001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3565,7 +3547,7 @@
         <v>2076.082573680001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3598,7 +3580,7 @@
         <v>2177.844873680001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3631,7 +3613,7 @@
         <v>2174.44597368</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3664,7 +3646,7 @@
         <v>2176.383973680001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3697,7 +3679,7 @@
         <v>2176.373873680001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3730,7 +3712,7 @@
         <v>2177.824873680001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3895,7 +3877,7 @@
         <v>2396.73287368</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4027,7 +4009,7 @@
         <v>2521.98017368</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4060,7 +4042,7 @@
         <v>2567.89217368</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4423,7 +4405,7 @@
         <v>3193.63730433</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4456,7 +4438,7 @@
         <v>3193.63730433</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4489,7 +4471,7 @@
         <v>3170.444604329999</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4522,7 +4504,7 @@
         <v>3170.452604329999</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4555,7 +4537,7 @@
         <v>3170.452604329999</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4588,7 +4570,7 @@
         <v>3071.061704329999</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4621,7 +4603,7 @@
         <v>3074.701704329999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4654,7 +4636,7 @@
         <v>2942.171404329999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4687,7 +4669,7 @@
         <v>2591.24320433</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4720,7 +4702,7 @@
         <v>2591.251204329999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4753,7 +4735,7 @@
         <v>2611.251204329999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4786,7 +4768,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4819,7 +4801,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4852,7 +4834,7 @@
         <v>2633.390804329999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4885,7 +4867,7 @@
         <v>2643.390804329999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4951,7 +4933,7 @@
         <v>2643.398804329999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5116,7 +5098,7 @@
         <v>2633.204661719999</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5149,7 +5131,7 @@
         <v>2633.212661719999</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5182,7 +5164,7 @@
         <v>2633.212661719999</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5281,7 +5263,7 @@
         <v>2640.589261719999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5314,7 +5296,7 @@
         <v>2598.751261719999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5380,7 +5362,7 @@
         <v>2663.770661719999</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5413,7 +5395,7 @@
         <v>2660.851161719999</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5446,7 +5428,7 @@
         <v>2661.114361719999</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5479,7 +5461,7 @@
         <v>2661.114361719999</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5512,7 +5494,7 @@
         <v>2660.329261719999</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5545,7 +5527,7 @@
         <v>2661.654261719998</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5578,7 +5560,7 @@
         <v>2547.335261719998</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5611,7 +5593,7 @@
         <v>2507.597761719998</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5644,7 +5626,7 @@
         <v>2507.056261719998</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5776,7 +5758,7 @@
         <v>2590.987361719999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5809,7 +5791,7 @@
         <v>2575.081661719999</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5842,7 +5824,7 @@
         <v>2555.081661719999</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5875,7 +5857,7 @@
         <v>2546.081661719999</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5908,7 +5890,7 @@
         <v>2443.676261719999</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6007,7 +5989,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6040,7 +6022,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6073,7 +6055,7 @@
         <v>2160.389261719999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6106,7 +6088,7 @@
         <v>2158.650261719999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6139,7 +6121,7 @@
         <v>1774.557861719999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6172,7 +6154,7 @@
         <v>1628.235661719999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6205,7 +6187,7 @@
         <v>620.701961719999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6238,7 +6220,7 @@
         <v>757.4842617199989</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6271,7 +6253,7 @@
         <v>796.870461719999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6304,7 +6286,7 @@
         <v>809.146661719999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6337,7 +6319,7 @@
         <v>923.823161719999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6370,7 +6352,7 @@
         <v>911.005061719999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6403,7 +6385,7 @@
         <v>920.1807617199991</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6436,7 +6418,7 @@
         <v>754.036761719999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6469,7 +6451,7 @@
         <v>756.3242617199991</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6502,7 +6484,7 @@
         <v>753.5283617199991</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6535,7 +6517,7 @@
         <v>756.1369617199991</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6568,7 +6550,7 @@
         <v>756.1369617199991</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6601,7 +6583,7 @@
         <v>267.2762617199991</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6634,7 +6616,7 @@
         <v>273.3373617199991</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6667,7 +6649,7 @@
         <v>273.3373617199991</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6700,7 +6682,7 @@
         <v>282.0573617199992</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -9571,7 +9553,7 @@
         <v>274.5643479099991</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9604,7 +9586,7 @@
         <v>243.4691479099991</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9637,7 +9619,7 @@
         <v>252.1476479099991</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9670,7 +9652,7 @@
         <v>252.1476479099991</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -13861,7 +13843,7 @@
         <v>729.9367551099991</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -18481,10 +18463,14 @@
         <v>-633.989309770001</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J540" t="n">
+        <v>66900</v>
+      </c>
       <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
@@ -18517,8 +18503,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>66900</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18550,8 +18542,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>66900</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19438,10 +19436,14 @@
         <v>-766.0852288900011</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>67050</v>
+      </c>
+      <c r="J569" t="n">
+        <v>67050</v>
+      </c>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
@@ -19471,11 +19473,19 @@
         <v>-718.6509288900011</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J570" t="n">
+        <v>67050</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19504,11 +19514,19 @@
         <v>-718.7662288900011</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J571" t="n">
+        <v>67050</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19636,11 +19654,17 @@
         <v>-316.2913288900011</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>66750</v>
+      </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19673,7 +19697,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19706,7 +19734,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19739,7 +19771,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19768,11 +19804,17 @@
         <v>-145.658200540001</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>66650</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19805,7 +19847,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19834,11 +19880,17 @@
         <v>-107.436370000001</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>66900</v>
+      </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19867,11 +19919,17 @@
         <v>-28.37827000000102</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>66700</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19904,7 +19962,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19937,7 +19999,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19970,7 +20036,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20003,7 +20073,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20036,7 +20110,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20069,7 +20147,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20102,7 +20184,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20131,11 +20217,17 @@
         <v>0.6524574999989706</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>66900</v>
+      </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20164,15 +20256,15 @@
         <v>0.6524574999989706</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J591" t="n">
-        <v>66900</v>
-      </c>
-      <c r="K591" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20201,17 +20293,13 @@
         <v>-99.81154250000102</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J592" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L592" t="n">
@@ -20242,14 +20330,10 @@
         <v>-99.28164250000103</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="n">
-        <v>66800</v>
-      </c>
-      <c r="J593" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20283,14 +20367,10 @@
         <v>-168.047742500001</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J594" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20324,14 +20404,10 @@
         <v>-168.047742500001</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="n">
-        <v>66750</v>
-      </c>
-      <c r="J595" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20365,14 +20441,10 @@
         <v>-168.047742500001</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="n">
-        <v>66750</v>
-      </c>
-      <c r="J596" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20406,14 +20478,10 @@
         <v>-165.058205880001</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>66750</v>
-      </c>
-      <c r="J597" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20447,14 +20515,10 @@
         <v>-165.907405880001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J598" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20488,14 +20552,10 @@
         <v>-165.907405880001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
-      </c>
-      <c r="I599" t="n">
-        <v>66750</v>
-      </c>
-      <c r="J599" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20529,14 +20589,10 @@
         <v>-178.158105880001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="n">
-        <v>66750</v>
-      </c>
-      <c r="J600" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20570,14 +20626,10 @@
         <v>-178.158105880001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>66650</v>
-      </c>
-      <c r="J601" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20614,9 +20666,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20653,9 +20703,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20692,9 +20740,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20731,9 +20777,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20770,9 +20814,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20809,9 +20851,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20848,9 +20888,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20884,12 +20922,12 @@
         <v>-1079.334005880001</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20923,14 +20961,12 @@
         <v>-1071.355905880001</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I610" t="n">
         <v>66350</v>
       </c>
-      <c r="J610" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20964,12 +21000,12 @@
         <v>-1071.381105880001</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>66400</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21003,12 +21039,12 @@
         <v>-1051.558805880001</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21042,12 +21078,12 @@
         <v>-985.246005880001</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>66500</v>
+      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21081,14 +21117,12 @@
         <v>-968.033229110001</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>66600</v>
       </c>
-      <c r="J614" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21122,14 +21156,10 @@
         <v>-1187.299229110001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>66750</v>
-      </c>
-      <c r="J615" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21166,9 +21196,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21202,14 +21230,10 @@
         <v>-1186.576029110001</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>66600</v>
-      </c>
-      <c r="J617" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21243,14 +21267,10 @@
         <v>-1128.816529110001</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>66800</v>
-      </c>
-      <c r="J618" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21284,14 +21304,10 @@
         <v>-1128.816529110001</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="n">
-        <v>66950</v>
-      </c>
-      <c r="J619" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21325,14 +21341,10 @@
         <v>-1141.872429110001</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="n">
-        <v>66950</v>
-      </c>
-      <c r="J620" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21366,14 +21378,10 @@
         <v>-1134.372329110001</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>66850</v>
-      </c>
-      <c r="J621" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21407,14 +21415,10 @@
         <v>-1087.781829110001</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J622" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21448,14 +21452,10 @@
         <v>-1091.386929110001</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
-      </c>
-      <c r="I623" t="n">
-        <v>67100</v>
-      </c>
-      <c r="J623" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21489,14 +21489,10 @@
         <v>-1090.088929110001</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
-      </c>
-      <c r="I624" t="n">
-        <v>67000</v>
-      </c>
-      <c r="J624" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21530,14 +21526,10 @@
         <v>-1037.967229110001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
-      </c>
-      <c r="I625" t="n">
-        <v>67150</v>
-      </c>
-      <c r="J625" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21571,14 +21563,10 @@
         <v>-1037.967229110001</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="n">
-        <v>67600</v>
-      </c>
-      <c r="J626" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21615,9 +21603,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21651,14 +21637,10 @@
         <v>-939.5439277800015</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J628" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21692,14 +21674,10 @@
         <v>-942.5047277800014</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>67650</v>
-      </c>
-      <c r="J629" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21733,14 +21711,10 @@
         <v>-1042.504727780001</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
-      </c>
-      <c r="I630" t="n">
-        <v>67550</v>
-      </c>
-      <c r="J630" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21774,14 +21748,10 @@
         <v>-1062.412627780001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J631" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21815,14 +21785,10 @@
         <v>-918.8527277800013</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J632" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21856,14 +21822,10 @@
         <v>-884.8084277800012</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>67600</v>
-      </c>
-      <c r="J633" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21897,14 +21859,10 @@
         <v>-884.9561277800012</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>67900</v>
-      </c>
-      <c r="J634" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21938,14 +21896,10 @@
         <v>-870.9129277800013</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>67750</v>
-      </c>
-      <c r="J635" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21979,14 +21933,10 @@
         <v>-1028.674027780001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>67800</v>
-      </c>
-      <c r="J636" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22020,14 +21970,10 @@
         <v>-1033.674027780001</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>67650</v>
-      </c>
-      <c r="J637" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22061,14 +22007,10 @@
         <v>-1017.805827780001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J638" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22102,14 +22044,10 @@
         <v>-1056.437427780001</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>67650</v>
-      </c>
-      <c r="J639" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22143,14 +22081,10 @@
         <v>-1058.135827780001</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J640" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22184,14 +22118,10 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J641" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22225,14 +22155,10 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J642" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22266,14 +22192,10 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J643" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22307,14 +22229,10 @@
         <v>-1094.149527780001</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J644" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22348,14 +22266,10 @@
         <v>-1093.549527780001</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>67250</v>
-      </c>
-      <c r="J645" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22389,14 +22303,10 @@
         <v>-1083.563127780001</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>67350</v>
-      </c>
-      <c r="J646" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22430,14 +22340,10 @@
         <v>-1075.563127780001</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J647" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22474,9 +22380,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22513,9 +22417,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22552,9 +22454,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22591,9 +22491,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22627,12 +22525,12 @@
         <v>-1079.430027780001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22669,9 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22705,12 +22601,12 @@
         <v>-1199.499226750001</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22744,12 +22640,12 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>67750</v>
+      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,12 +22679,12 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22822,14 +22718,12 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>67850</v>
       </c>
-      <c r="J657" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22863,12 +22757,12 @@
         <v>-1199.820403690001</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22902,14 +22796,12 @@
         <v>-1197.455403690001</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>67800</v>
       </c>
-      <c r="J659" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22943,14 +22835,12 @@
         <v>-1228.050703690001</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>67950</v>
       </c>
-      <c r="J660" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22984,14 +22874,12 @@
         <v>-1266.364603690001</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>67700</v>
       </c>
-      <c r="J661" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23025,14 +22913,12 @@
         <v>-1156.506103690001</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>67650</v>
       </c>
-      <c r="J662" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23066,14 +22952,12 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>67700</v>
       </c>
-      <c r="J663" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23107,14 +22991,12 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>67550</v>
       </c>
-      <c r="J664" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23148,14 +23030,12 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>67550</v>
       </c>
-      <c r="J665" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23189,14 +23069,12 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>67550</v>
       </c>
-      <c r="J666" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23230,14 +23108,12 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>67550</v>
       </c>
-      <c r="J667" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23271,14 +23147,12 @@
         <v>-1302.084803690001</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>67550</v>
       </c>
-      <c r="J668" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23312,14 +23186,12 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>67400</v>
       </c>
-      <c r="J669" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23353,14 +23225,12 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>67450</v>
       </c>
-      <c r="J670" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23394,14 +23264,12 @@
         <v>-1299.462503690001</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>67450</v>
       </c>
-      <c r="J671" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23435,14 +23303,12 @@
         <v>-1446.471603690001</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>67300</v>
       </c>
-      <c r="J672" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23476,14 +23342,12 @@
         <v>-1454.944803690001</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>67150</v>
       </c>
-      <c r="J673" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23517,14 +23381,12 @@
         <v>-1453.944803690001</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>67100</v>
       </c>
-      <c r="J674" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23558,14 +23420,12 @@
         <v>-1203.944803690001</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>67150</v>
       </c>
-      <c r="J675" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23599,14 +23459,12 @@
         <v>-1203.994803690001</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>67400</v>
       </c>
-      <c r="J676" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23640,14 +23498,12 @@
         <v>-1203.527603690001</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>67200</v>
       </c>
-      <c r="J677" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23681,12 +23537,12 @@
         <v>-1229.314303690001</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23720,12 +23576,12 @@
         <v>-1149.571803690001</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23759,12 +23615,12 @@
         <v>-1294.053003690001</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23798,12 +23654,12 @@
         <v>-1293.525503690001</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>67050</v>
+      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23837,12 +23693,12 @@
         <v>-1293.806503690001</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23876,12 +23732,12 @@
         <v>-1282.046503690001</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
         <v>66900</v>
       </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23915,12 +23771,12 @@
         <v>-1271.252103690001</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23954,12 +23810,12 @@
         <v>-1272.252103690001</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23993,12 +23849,12 @@
         <v>-1273.101403690001</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24032,12 +23888,12 @@
         <v>-1185.541603690001</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>66950</v>
+      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24071,12 +23927,12 @@
         <v>-1181.997303690001</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>67050</v>
+      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24110,14 +23966,12 @@
         <v>-1181.997303690001</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>67100</v>
       </c>
-      <c r="J689" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24151,14 +24005,12 @@
         <v>-1106.741203690001</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>67100</v>
       </c>
-      <c r="J690" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24192,14 +24044,12 @@
         <v>-1110.806503690001</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>67350</v>
       </c>
-      <c r="J691" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24233,14 +24083,12 @@
         <v>-1110.806503690001</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>67250</v>
       </c>
-      <c r="J692" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24274,14 +24122,12 @@
         <v>-1125.933503690001</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>67250</v>
       </c>
-      <c r="J693" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24315,14 +24161,12 @@
         <v>-1125.791003690001</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>67150</v>
       </c>
-      <c r="J694" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24356,14 +24200,12 @@
         <v>-1125.731003690001</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>67200</v>
       </c>
-      <c r="J695" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24397,14 +24239,12 @@
         <v>-1128.274303690001</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>67250</v>
       </c>
-      <c r="J696" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24438,14 +24278,12 @@
         <v>-1108.274303690001</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>67050</v>
       </c>
-      <c r="J697" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24479,14 +24317,12 @@
         <v>-1114.019203690001</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>67350</v>
       </c>
-      <c r="J698" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24520,14 +24356,12 @@
         <v>-1082.477303690001</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I699" t="n">
         <v>67250</v>
       </c>
-      <c r="J699" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24561,14 +24395,12 @@
         <v>-1081.477303690001</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>67400</v>
       </c>
-      <c r="J700" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24602,14 +24434,10 @@
         <v>-1081.477303690001</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
-      </c>
-      <c r="I701" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J701" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24646,9 +24474,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24685,9 +24511,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24724,9 +24548,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24763,9 +24585,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24802,9 +24622,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24841,9 +24659,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24877,14 +24693,10 @@
         <v>-1486.950003690001</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
-      </c>
-      <c r="I708" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J708" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24918,14 +24730,10 @@
         <v>-1490.946803690001</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
-      </c>
-      <c r="I709" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J709" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24959,14 +24767,10 @@
         <v>-1493.919803690001</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
-      </c>
-      <c r="I710" t="n">
-        <v>67350</v>
-      </c>
-      <c r="J710" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25000,14 +24804,10 @@
         <v>-1429.059603690001</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
-      </c>
-      <c r="I711" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J711" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25041,14 +24841,10 @@
         <v>-1420.524503690001</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
-      </c>
-      <c r="I712" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J712" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25085,9 +24881,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25121,14 +24915,10 @@
         <v>-1401.781403690001</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
-      </c>
-      <c r="I714" t="n">
-        <v>67750</v>
-      </c>
-      <c r="J714" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25162,14 +24952,10 @@
         <v>-1402.572403690001</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>67800</v>
-      </c>
-      <c r="J715" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25206,9 +24992,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25245,9 +25029,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25284,9 +25066,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25323,9 +25103,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25362,9 +25140,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25401,9 +25177,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25437,14 +25211,10 @@
         <v>-929.9495036900009</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
-      </c>
-      <c r="I722" t="n">
-        <v>68300</v>
-      </c>
-      <c r="J722" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25478,14 +25248,10 @@
         <v>-1180.376903690001</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
-      </c>
-      <c r="I723" t="n">
-        <v>68150</v>
-      </c>
-      <c r="J723" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25519,14 +25285,10 @@
         <v>-1180.376903690001</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
-      </c>
-      <c r="I724" t="n">
-        <v>68000</v>
-      </c>
-      <c r="J724" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25560,14 +25322,10 @@
         <v>-1180.376903690001</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>68000</v>
-      </c>
-      <c r="J725" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25601,14 +25359,10 @@
         <v>-1300.124503690001</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
-      </c>
-      <c r="I726" t="n">
-        <v>68000</v>
-      </c>
-      <c r="J726" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25642,14 +25396,10 @@
         <v>-1279.615503690001</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>67900</v>
-      </c>
-      <c r="J727" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25683,14 +25433,10 @@
         <v>-1340.117303690001</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
-      </c>
-      <c r="I728" t="n">
-        <v>68000</v>
-      </c>
-      <c r="J728" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25724,14 +25470,10 @@
         <v>-1413.133503690001</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
-      </c>
-      <c r="I729" t="n">
-        <v>67900</v>
-      </c>
-      <c r="J729" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25765,14 +25507,12 @@
         <v>-1411.354003690001</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>67800</v>
       </c>
-      <c r="J730" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25806,14 +25546,10 @@
         <v>-1411.976003690001</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>67900</v>
-      </c>
-      <c r="J731" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25847,14 +25583,12 @@
         <v>-1416.825303690001</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I732" t="n">
         <v>67750</v>
       </c>
-      <c r="J732" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25888,14 +25622,12 @@
         <v>-1366.765503690001</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I733" t="n">
         <v>67450</v>
       </c>
-      <c r="J733" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25929,14 +25661,12 @@
         <v>-1735.772703690001</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I734" t="n">
         <v>67650</v>
       </c>
-      <c r="J734" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25970,14 +25700,12 @@
         <v>-1602.787903690001</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I735" t="n">
         <v>67350</v>
       </c>
-      <c r="J735" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26011,14 +25739,12 @@
         <v>-1202.787903690001</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
         <v>67500</v>
       </c>
-      <c r="J736" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26052,14 +25778,12 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>67650</v>
       </c>
-      <c r="J737" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26093,14 +25817,12 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I738" t="n">
         <v>67850</v>
       </c>
-      <c r="J738" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26134,14 +25856,12 @@
         <v>-1202.369303690001</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I739" t="n">
         <v>67850</v>
       </c>
-      <c r="J739" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26175,14 +25895,12 @@
         <v>-1098.769303690001</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I740" t="n">
         <v>67750</v>
       </c>
-      <c r="J740" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26216,12 +25934,12 @@
         <v>-1098.769303690001</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>67900</v>
+      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26255,12 +25973,12 @@
         <v>-1120.821303690001</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>67900</v>
+      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26294,14 +26012,12 @@
         <v>-1020.821303690001</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>67600</v>
       </c>
-      <c r="J743" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26335,14 +26051,12 @@
         <v>-1021.056903690001</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I744" t="n">
         <v>67750</v>
       </c>
-      <c r="J744" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26376,14 +26090,12 @@
         <v>-1013.180203690001</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I745" t="n">
         <v>67550</v>
       </c>
-      <c r="J745" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26417,14 +26129,12 @@
         <v>-757.180203690001</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>67750</v>
       </c>
-      <c r="J746" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26458,14 +26168,12 @@
         <v>-761.321203690001</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>67800</v>
       </c>
-      <c r="J747" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26499,14 +26207,12 @@
         <v>-761.321203690001</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>67700</v>
       </c>
-      <c r="J748" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26540,12 +26246,12 @@
         <v>-764.019003690001</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>67700</v>
+      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26579,12 +26285,12 @@
         <v>-563.9934036900011</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26618,12 +26324,12 @@
         <v>-681.741703690001</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26660,9 +26366,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26696,12 +26400,12 @@
         <v>-517.546103690001</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>67350</v>
+      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26738,9 +26442,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26774,12 +26476,12 @@
         <v>-531.028003690001</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26813,12 +26515,12 @@
         <v>-531.028003690001</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>67450</v>
+      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26852,14 +26554,12 @@
         <v>-529.823403690001</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>67450</v>
       </c>
-      <c r="J757" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26893,12 +26593,12 @@
         <v>-516.372803690001</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26932,12 +26632,12 @@
         <v>-511.715703690001</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>67650</v>
+      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26974,9 +26674,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27013,9 +26711,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27052,9 +26748,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27091,9 +26785,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27130,9 +26822,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27169,9 +26859,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27208,9 +26896,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27247,9 +26933,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27286,9 +26970,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27325,9 +27007,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27364,9 +27044,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27403,9 +27081,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27442,9 +27118,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27481,9 +27155,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27520,9 +27192,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27559,9 +27229,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27598,9 +27266,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27637,9 +27303,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27676,9 +27340,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27715,9 +27377,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27754,9 +27414,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27793,9 +27451,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27832,9 +27488,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27871,9 +27525,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27910,9 +27562,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27949,9 +27599,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27988,9 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28027,9 +27673,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28066,9 +27710,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28105,9 +27747,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28141,12 +27781,12 @@
         <v>-149.7017036900009</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>67650</v>
+      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28183,9 +27823,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28222,9 +27860,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28261,9 +27897,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28300,9 +27934,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28339,9 +27971,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28378,9 +28008,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28417,9 +28045,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28456,9 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28495,9 +28119,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28534,9 +28156,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28573,9 +28193,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28612,9 +28230,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28651,9 +28267,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28690,9 +28304,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28729,9 +28341,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28768,9 +28378,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28804,14 +28412,10 @@
         <v>-309.7987034000008</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
-      </c>
-      <c r="I807" t="n">
-        <v>67700</v>
-      </c>
-      <c r="J807" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28848,9 +28452,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28887,9 +28489,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28926,9 +28526,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28965,9 +28563,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29004,9 +28600,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29043,9 +28637,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29082,9 +28674,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29121,9 +28711,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29160,9 +28748,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29199,9 +28785,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29238,9 +28822,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29277,9 +28859,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29313,12 +28893,12 @@
         <v>-968.9231034000009</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>67250</v>
+      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29355,9 +28935,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29394,9 +28972,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29433,9 +29009,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29472,9 +29046,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29511,9 +29083,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29550,9 +29120,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29589,9 +29157,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29628,9 +29194,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29667,9 +29231,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29706,9 +29268,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29745,9 +29305,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29784,9 +29342,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29823,9 +29379,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29862,9 +29416,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29901,9 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29940,9 +29490,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29979,9 +29527,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30018,9 +29564,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30057,9 +29601,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30096,9 +29638,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30135,9 +29675,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30174,9 +29712,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30213,9 +29749,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30252,9 +29786,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30291,9 +29823,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30330,9 +29860,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30369,9 +29897,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30408,9 +29934,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30447,9 +29971,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30486,9 +30008,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30525,9 +30045,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30564,9 +30082,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30603,9 +30119,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30642,9 +30156,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30681,9 +30193,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30720,9 +30230,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30759,9 +30267,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30798,9 +30304,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30837,9 +30341,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30876,9 +30378,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30912,14 +30412,10 @@
         <v>-1098.217128620001</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
-      </c>
-      <c r="I861" t="n">
-        <v>68000</v>
-      </c>
-      <c r="J861" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30956,9 +30452,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30995,9 +30489,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31034,9 +30526,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31073,9 +30563,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31112,9 +30600,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31148,12 +30634,12 @@
         <v>-993.5340198300009</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>68250</v>
+      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31187,12 +30673,12 @@
         <v>-989.495819830001</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>68300</v>
+      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31226,12 +30712,12 @@
         <v>-989.495819830001</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31265,12 +30751,12 @@
         <v>-708.532719830001</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31307,9 +30793,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31346,9 +30830,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31382,12 +30864,12 @@
         <v>-346.6913227400011</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>66900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>68700</v>
+      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31424,9 +30906,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31463,9 +30943,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31502,9 +30980,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31541,9 +31017,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31580,9 +31054,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31619,9 +31091,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31658,9 +31128,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31697,9 +31165,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31736,9 +31202,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31775,9 +31239,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31814,9 +31276,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31853,9 +31313,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31892,9 +31350,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31931,9 +31387,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31970,9 +31424,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32009,9 +31461,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32048,9 +31498,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32087,9 +31535,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32126,9 +31572,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32165,9 +31609,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32204,9 +31646,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32243,9 +31683,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32282,9 +31720,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32321,9 +31757,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32360,9 +31794,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32399,9 +31831,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32438,9 +31868,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32477,9 +31905,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32516,9 +31942,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32555,9 +31979,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32594,9 +32016,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32633,9 +32053,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32672,9 +32090,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32711,9 +32127,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32750,9 +32164,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32789,9 +32201,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32828,9 +32238,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32867,9 +32275,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32906,9 +32312,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32945,9 +32349,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32984,9 +32386,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33023,9 +32423,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33062,9 +32460,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33101,9 +32497,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33140,9 +32534,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33179,9 +32571,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33193,6 +32583,6 @@
       <c r="M919" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest LTC.xlsx
+++ b/BackTest/2020-01-19 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>615.7919999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>67900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>624.9915999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,15 +550,11 @@
         <v>612.2364</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -599,15 +583,11 @@
         <v>617.5564000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,15 +616,11 @@
         <v>835.4199000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,15 +649,11 @@
         <v>835.3947000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,15 +682,11 @@
         <v>840.6577000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,15 +715,11 @@
         <v>842.3661000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -784,15 +748,11 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -821,15 +781,11 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -858,15 +814,11 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -895,15 +847,11 @@
         <v>813.6946</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -932,15 +880,11 @@
         <v>1022.8296</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -969,15 +913,11 @@
         <v>1842.732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1006,15 +946,11 @@
         <v>1961.097</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1043,15 +979,11 @@
         <v>2626.45319639</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1080,15 +1012,11 @@
         <v>2529.78039639</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1117,15 +1045,11 @@
         <v>2589.29589639</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1158,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1232,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1306,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1380,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1417,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1454,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1491,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1528,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1565,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1602,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1676,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1709,15 +1573,11 @@
         <v>2715.12699639</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1746,15 +1606,11 @@
         <v>2715.12699639</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1783,15 +1639,11 @@
         <v>2791.35539639</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1820,15 +1672,11 @@
         <v>2791.47529639</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1857,15 +1705,11 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1894,15 +1738,11 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1931,15 +1771,11 @@
         <v>2759.823896390001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1968,15 +1804,11 @@
         <v>2803.593396390001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2009,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2046,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2083,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2120,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2157,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2194,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2231,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2268,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2305,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2342,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2379,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2453,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2490,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2527,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2564,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2601,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2638,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2675,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2712,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2749,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2786,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2819,16 +2563,14 @@
         <v>2758.522573680001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2854,7 +2596,7 @@
         <v>2760.352973680001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2887,7 +2629,7 @@
         <v>2754.988773680001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2920,7 +2662,7 @@
         <v>2951.905473680001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2953,7 +2695,7 @@
         <v>1442.210773680001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2986,7 +2728,7 @@
         <v>1654.363873680001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3085,7 +2827,7 @@
         <v>2404.181173680001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3349,7 +3091,7 @@
         <v>2350.212573680001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3382,7 +3124,7 @@
         <v>2350.212573680001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3448,7 +3190,7 @@
         <v>2282.864973680001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3547,7 +3289,7 @@
         <v>2076.082573680001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3580,7 +3322,7 @@
         <v>2177.844873680001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3613,7 +3355,7 @@
         <v>2174.44597368</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3646,7 +3388,7 @@
         <v>2176.383973680001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3679,7 +3421,7 @@
         <v>2176.373873680001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3712,7 +3454,7 @@
         <v>2177.824873680001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3877,7 +3619,7 @@
         <v>2396.73287368</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4405,7 +4147,7 @@
         <v>3193.63730433</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4438,7 +4180,7 @@
         <v>3193.63730433</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4603,7 +4345,7 @@
         <v>3074.701704329999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4636,7 +4378,7 @@
         <v>2942.171404329999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4669,7 +4411,7 @@
         <v>2591.24320433</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4702,7 +4444,7 @@
         <v>2591.251204329999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4735,7 +4477,7 @@
         <v>2611.251204329999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4768,7 +4510,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4801,7 +4543,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4834,7 +4576,7 @@
         <v>2633.390804329999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4867,7 +4609,7 @@
         <v>2643.390804329999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4933,7 +4675,7 @@
         <v>2643.398804329999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5263,7 +5005,7 @@
         <v>2640.589261719999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5296,7 +5038,7 @@
         <v>2598.751261719999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5989,7 +5731,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6022,7 +5764,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6055,7 +5797,7 @@
         <v>2160.389261719999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6088,7 +5830,7 @@
         <v>2158.650261719999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6121,7 +5863,7 @@
         <v>1774.557861719999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6154,7 +5896,7 @@
         <v>1628.235661719999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6187,7 +5929,7 @@
         <v>620.701961719999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6220,7 +5962,7 @@
         <v>757.4842617199989</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6253,7 +5995,7 @@
         <v>796.870461719999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6286,7 +6028,7 @@
         <v>809.146661719999</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6319,7 +6061,7 @@
         <v>923.823161719999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6352,7 +6094,7 @@
         <v>911.005061719999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6385,7 +6127,7 @@
         <v>920.1807617199991</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6418,7 +6160,7 @@
         <v>754.036761719999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6451,7 +6193,7 @@
         <v>756.3242617199991</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6484,7 +6226,7 @@
         <v>753.5283617199991</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6517,7 +6259,7 @@
         <v>756.1369617199991</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6550,7 +6292,7 @@
         <v>756.1369617199991</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6583,7 +6325,7 @@
         <v>267.2762617199991</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6616,7 +6358,7 @@
         <v>273.3373617199991</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6649,7 +6391,7 @@
         <v>273.3373617199991</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6682,7 +6424,7 @@
         <v>282.0573617199992</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -13843,7 +13585,7 @@
         <v>729.9367551099991</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -18463,14 +18205,10 @@
         <v>-633.989309770001</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J540" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
@@ -18503,14 +18241,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>66900</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18542,14 +18274,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>66900</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18611,10 +18337,14 @@
         <v>-601.635609770001</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>67450</v>
+      </c>
+      <c r="J544" t="n">
+        <v>67450</v>
+      </c>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
@@ -18647,8 +18377,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>67450</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18680,8 +18416,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>67450</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19436,14 +19178,10 @@
         <v>-766.0852288900011</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>67050</v>
-      </c>
-      <c r="J569" t="n">
-        <v>67050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
@@ -19473,19 +19211,11 @@
         <v>-718.6509288900011</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>67150</v>
-      </c>
-      <c r="J570" t="n">
-        <v>67050</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19514,19 +19244,11 @@
         <v>-718.7662288900011</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>67200</v>
-      </c>
-      <c r="J571" t="n">
-        <v>67050</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19654,1209 +19376,1073 @@
         <v>-316.2913288900011</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>66900</v>
+      </c>
+      <c r="C576" t="n">
+        <v>67100</v>
+      </c>
+      <c r="D576" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E576" t="n">
+        <v>66900</v>
+      </c>
+      <c r="F576" t="n">
+        <v>89.5765</v>
+      </c>
+      <c r="G576" t="n">
+        <v>-226.7148288900011</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C577" t="n">
+        <v>66850</v>
+      </c>
+      <c r="D577" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E577" t="n">
+        <v>66850</v>
+      </c>
+      <c r="F577" t="n">
+        <v>93.92189999999999</v>
+      </c>
+      <c r="G577" t="n">
+        <v>-320.6367288900011</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
         <v>66750</v>
       </c>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
+      <c r="C578" t="n">
+        <v>66650</v>
+      </c>
+      <c r="D578" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E578" t="n">
+        <v>66650</v>
+      </c>
+      <c r="F578" t="n">
+        <v>138.581</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-459.217728890001</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C579" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D579" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E579" t="n">
+        <v>66650</v>
+      </c>
+      <c r="F579" t="n">
+        <v>313.55952835</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-145.658200540001</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C580" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D580" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E580" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F580" t="n">
+        <v>41.48693054</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-104.171270000001</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>66700</v>
+      </c>
+      <c r="C581" t="n">
+        <v>66700</v>
+      </c>
+      <c r="D581" t="n">
+        <v>66700</v>
+      </c>
+      <c r="E581" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F581" t="n">
+        <v>3.2651</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-107.436370000001</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>66900</v>
+      </c>
+      <c r="C582" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D582" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E582" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F582" t="n">
+        <v>79.0581</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-28.37827000000102</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C583" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D583" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E583" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F583" t="n">
+        <v>100.2361</v>
+      </c>
+      <c r="G583" t="n">
+        <v>71.85782999999897</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C584" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D584" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E584" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F584" t="n">
+        <v>25.9268</v>
+      </c>
+      <c r="G584" t="n">
+        <v>45.93102999999897</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C585" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D585" t="n">
+        <v>66750</v>
+      </c>
+      <c r="E585" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.6745</v>
+      </c>
+      <c r="G585" t="n">
+        <v>45.93102999999897</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C586" t="n">
+        <v>66700</v>
+      </c>
+      <c r="D586" t="n">
+        <v>66750</v>
+      </c>
+      <c r="E586" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F586" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G586" t="n">
+        <v>36.33102999999897</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C587" t="n">
+        <v>66700</v>
+      </c>
+      <c r="D587" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E587" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F587" t="n">
+        <v>80.24332973999999</v>
+      </c>
+      <c r="G587" t="n">
+        <v>36.33102999999897</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>66650</v>
+      </c>
+      <c r="C588" t="n">
+        <v>66650</v>
+      </c>
+      <c r="D588" t="n">
+        <v>66650</v>
+      </c>
+      <c r="E588" t="n">
+        <v>66650</v>
+      </c>
+      <c r="F588" t="n">
+        <v>35.745</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.5860299999989707</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>66900</v>
+      </c>
+      <c r="C589" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D589" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E589" t="n">
+        <v>66900</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.0664275</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.6524574999989706</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>66900</v>
+      </c>
+      <c r="C590" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D590" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E590" t="n">
+        <v>66900</v>
+      </c>
+      <c r="F590" t="n">
+        <v>10</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.6524574999989706</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>66900</v>
+      </c>
+      <c r="C591" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D591" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E591" t="n">
+        <v>66900</v>
+      </c>
+      <c r="F591" t="n">
+        <v>51.9667</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.6524574999989706</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C592" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D592" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E592" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F592" t="n">
+        <v>100.464</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-99.81154250000102</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C593" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D593" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E593" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.5299</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-99.28164250000103</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C594" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D594" t="n">
+        <v>66750</v>
+      </c>
+      <c r="E594" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F594" t="n">
+        <v>68.76609999999999</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-168.047742500001</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>66850</v>
+      </c>
+      <c r="C595" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D595" t="n">
+        <v>66850</v>
+      </c>
+      <c r="E595" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F595" t="n">
+        <v>59.9568</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-168.047742500001</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C596" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D596" t="n">
+        <v>66750</v>
+      </c>
+      <c r="E596" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F596" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-168.047742500001</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>66900</v>
+      </c>
+      <c r="C597" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D597" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E597" t="n">
+        <v>66900</v>
+      </c>
+      <c r="F597" t="n">
+        <v>2.98953662</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-165.058205880001</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C598" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D598" t="n">
+        <v>66750</v>
+      </c>
+      <c r="E598" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.8492</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-165.907405880001</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C599" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D599" t="n">
+        <v>66750</v>
+      </c>
+      <c r="E599" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F599" t="n">
+        <v>25.9826</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-165.907405880001</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>66650</v>
+      </c>
+      <c r="C600" t="n">
+        <v>66650</v>
+      </c>
+      <c r="D600" t="n">
+        <v>66650</v>
+      </c>
+      <c r="E600" t="n">
+        <v>66650</v>
+      </c>
+      <c r="F600" t="n">
+        <v>12.2507</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-178.158105880001</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C601" t="n">
+        <v>66650</v>
+      </c>
+      <c r="D601" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E601" t="n">
+        <v>66650</v>
+      </c>
+      <c r="F601" t="n">
+        <v>51.51184925</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-178.158105880001</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C602" t="n">
+        <v>66600</v>
+      </c>
+      <c r="D602" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E602" t="n">
+        <v>66600</v>
+      </c>
+      <c r="F602" t="n">
+        <v>13.7778</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-191.935905880001</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>66600</v>
+      </c>
+      <c r="C603" t="n">
+        <v>66600</v>
+      </c>
+      <c r="D603" t="n">
+        <v>66650</v>
+      </c>
+      <c r="E603" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F603" t="n">
+        <v>37.0149</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-191.935905880001</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C604" t="n">
+        <v>66300</v>
+      </c>
+      <c r="D604" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E604" t="n">
+        <v>66300</v>
+      </c>
+      <c r="F604" t="n">
+        <v>151.8932</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-343.8291058800011</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>66300</v>
+      </c>
+      <c r="C605" t="n">
+        <v>66150</v>
+      </c>
+      <c r="D605" t="n">
+        <v>66350</v>
+      </c>
+      <c r="E605" t="n">
+        <v>65900</v>
+      </c>
+      <c r="F605" t="n">
+        <v>522.6728000000001</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-866.5019058800011</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>65950</v>
+      </c>
+      <c r="C606" t="n">
+        <v>65800</v>
+      </c>
+      <c r="D606" t="n">
+        <v>66050</v>
+      </c>
+      <c r="E606" t="n">
+        <v>65650</v>
+      </c>
+      <c r="F606" t="n">
+        <v>387.3366</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-1253.838505880001</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>65800</v>
+      </c>
+      <c r="C607" t="n">
+        <v>65850</v>
+      </c>
+      <c r="D607" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E607" t="n">
+        <v>65800</v>
+      </c>
+      <c r="F607" t="n">
+        <v>71.8613</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-1181.977205880001</v>
+      </c>
+      <c r="H607" t="n">
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>65800</v>
+      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>66900</v>
-      </c>
-      <c r="C576" t="n">
-        <v>67100</v>
-      </c>
-      <c r="D576" t="n">
-        <v>67100</v>
-      </c>
-      <c r="E576" t="n">
-        <v>66900</v>
-      </c>
-      <c r="F576" t="n">
-        <v>89.5765</v>
-      </c>
-      <c r="G576" t="n">
-        <v>-226.7148288900011</v>
-      </c>
-      <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>66950</v>
-      </c>
-      <c r="C577" t="n">
-        <v>66850</v>
-      </c>
-      <c r="D577" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E577" t="n">
-        <v>66850</v>
-      </c>
-      <c r="F577" t="n">
-        <v>93.92189999999999</v>
-      </c>
-      <c r="G577" t="n">
-        <v>-320.6367288900011</v>
-      </c>
-      <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C578" t="n">
-        <v>66650</v>
-      </c>
-      <c r="D578" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E578" t="n">
-        <v>66650</v>
-      </c>
-      <c r="F578" t="n">
-        <v>138.581</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-459.217728890001</v>
-      </c>
-      <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>66800</v>
-      </c>
-      <c r="C579" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D579" t="n">
-        <v>67000</v>
-      </c>
-      <c r="E579" t="n">
-        <v>66650</v>
-      </c>
-      <c r="F579" t="n">
-        <v>313.55952835</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-145.658200540001</v>
-      </c>
-      <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>66650</v>
-      </c>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>66950</v>
-      </c>
-      <c r="C580" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D580" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E580" t="n">
-        <v>66700</v>
-      </c>
-      <c r="F580" t="n">
-        <v>41.48693054</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-104.171270000001</v>
-      </c>
-      <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>66700</v>
-      </c>
-      <c r="C581" t="n">
-        <v>66700</v>
-      </c>
-      <c r="D581" t="n">
-        <v>66700</v>
-      </c>
-      <c r="E581" t="n">
-        <v>66700</v>
-      </c>
-      <c r="F581" t="n">
-        <v>3.2651</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-107.436370000001</v>
-      </c>
-      <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>66900</v>
-      </c>
-      <c r="C582" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D582" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E582" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F582" t="n">
-        <v>79.0581</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-28.37827000000102</v>
-      </c>
-      <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>66700</v>
-      </c>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>66950</v>
-      </c>
-      <c r="C583" t="n">
-        <v>66800</v>
-      </c>
-      <c r="D583" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E583" t="n">
-        <v>66800</v>
-      </c>
-      <c r="F583" t="n">
-        <v>100.2361</v>
-      </c>
-      <c r="G583" t="n">
-        <v>71.85782999999897</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>66800</v>
-      </c>
-      <c r="C584" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D584" t="n">
-        <v>66800</v>
-      </c>
-      <c r="E584" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F584" t="n">
-        <v>25.9268</v>
-      </c>
-      <c r="G584" t="n">
-        <v>45.93102999999897</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C585" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D585" t="n">
-        <v>66750</v>
-      </c>
-      <c r="E585" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F585" t="n">
-        <v>0.6745</v>
-      </c>
-      <c r="G585" t="n">
-        <v>45.93102999999897</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C586" t="n">
-        <v>66700</v>
-      </c>
-      <c r="D586" t="n">
-        <v>66750</v>
-      </c>
-      <c r="E586" t="n">
-        <v>66700</v>
-      </c>
-      <c r="F586" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G586" t="n">
-        <v>36.33102999999897</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>66800</v>
-      </c>
-      <c r="C587" t="n">
-        <v>66700</v>
-      </c>
-      <c r="D587" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E587" t="n">
-        <v>66700</v>
-      </c>
-      <c r="F587" t="n">
-        <v>80.24332973999999</v>
-      </c>
-      <c r="G587" t="n">
-        <v>36.33102999999897</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>66650</v>
-      </c>
-      <c r="C588" t="n">
-        <v>66650</v>
-      </c>
-      <c r="D588" t="n">
-        <v>66650</v>
-      </c>
-      <c r="E588" t="n">
-        <v>66650</v>
-      </c>
-      <c r="F588" t="n">
-        <v>35.745</v>
-      </c>
-      <c r="G588" t="n">
-        <v>0.5860299999989707</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>66900</v>
-      </c>
-      <c r="C589" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D589" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E589" t="n">
-        <v>66900</v>
-      </c>
-      <c r="F589" t="n">
-        <v>0.0664275</v>
-      </c>
-      <c r="G589" t="n">
-        <v>0.6524574999989706</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>66900</v>
-      </c>
-      <c r="C590" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D590" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E590" t="n">
-        <v>66900</v>
-      </c>
-      <c r="F590" t="n">
-        <v>10</v>
-      </c>
-      <c r="G590" t="n">
-        <v>0.6524574999989706</v>
-      </c>
-      <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>66900</v>
-      </c>
-      <c r="C591" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D591" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E591" t="n">
-        <v>66900</v>
-      </c>
-      <c r="F591" t="n">
-        <v>51.9667</v>
-      </c>
-      <c r="G591" t="n">
-        <v>0.6524574999989706</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>66950</v>
-      </c>
-      <c r="C592" t="n">
-        <v>66800</v>
-      </c>
-      <c r="D592" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E592" t="n">
-        <v>66800</v>
-      </c>
-      <c r="F592" t="n">
-        <v>100.464</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-99.81154250000102</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C593" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D593" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E593" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F593" t="n">
-        <v>0.5299</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-99.28164250000103</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C594" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D594" t="n">
-        <v>66750</v>
-      </c>
-      <c r="E594" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F594" t="n">
-        <v>68.76609999999999</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-168.047742500001</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>66850</v>
-      </c>
-      <c r="C595" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D595" t="n">
-        <v>66850</v>
-      </c>
-      <c r="E595" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F595" t="n">
-        <v>59.9568</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-168.047742500001</v>
-      </c>
-      <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C596" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D596" t="n">
-        <v>66750</v>
-      </c>
-      <c r="E596" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F596" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-168.047742500001</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>66900</v>
-      </c>
-      <c r="C597" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D597" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E597" t="n">
-        <v>66900</v>
-      </c>
-      <c r="F597" t="n">
-        <v>2.98953662</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-165.058205880001</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C598" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D598" t="n">
-        <v>66750</v>
-      </c>
-      <c r="E598" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F598" t="n">
-        <v>0.8492</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-165.907405880001</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C599" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D599" t="n">
-        <v>66750</v>
-      </c>
-      <c r="E599" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F599" t="n">
-        <v>25.9826</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-165.907405880001</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>66650</v>
-      </c>
-      <c r="C600" t="n">
-        <v>66650</v>
-      </c>
-      <c r="D600" t="n">
-        <v>66650</v>
-      </c>
-      <c r="E600" t="n">
-        <v>66650</v>
-      </c>
-      <c r="F600" t="n">
-        <v>12.2507</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-178.158105880001</v>
-      </c>
-      <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C601" t="n">
-        <v>66650</v>
-      </c>
-      <c r="D601" t="n">
-        <v>66800</v>
-      </c>
-      <c r="E601" t="n">
-        <v>66650</v>
-      </c>
-      <c r="F601" t="n">
-        <v>51.51184925</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-178.158105880001</v>
-      </c>
-      <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>66800</v>
-      </c>
-      <c r="C602" t="n">
-        <v>66600</v>
-      </c>
-      <c r="D602" t="n">
-        <v>66800</v>
-      </c>
-      <c r="E602" t="n">
-        <v>66600</v>
-      </c>
-      <c r="F602" t="n">
-        <v>13.7778</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-191.935905880001</v>
-      </c>
-      <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>66600</v>
-      </c>
-      <c r="C603" t="n">
-        <v>66600</v>
-      </c>
-      <c r="D603" t="n">
-        <v>66650</v>
-      </c>
-      <c r="E603" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F603" t="n">
-        <v>37.0149</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-191.935905880001</v>
-      </c>
-      <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C604" t="n">
-        <v>66300</v>
-      </c>
-      <c r="D604" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E604" t="n">
-        <v>66300</v>
-      </c>
-      <c r="F604" t="n">
-        <v>151.8932</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-343.8291058800011</v>
-      </c>
-      <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>66300</v>
-      </c>
-      <c r="C605" t="n">
-        <v>66150</v>
-      </c>
-      <c r="D605" t="n">
-        <v>66350</v>
-      </c>
-      <c r="E605" t="n">
-        <v>65900</v>
-      </c>
-      <c r="F605" t="n">
-        <v>522.6728000000001</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-866.5019058800011</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>65950</v>
-      </c>
-      <c r="C606" t="n">
-        <v>65800</v>
-      </c>
-      <c r="D606" t="n">
-        <v>66050</v>
-      </c>
-      <c r="E606" t="n">
-        <v>65650</v>
-      </c>
-      <c r="F606" t="n">
-        <v>387.3366</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-1253.838505880001</v>
-      </c>
-      <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>65800</v>
-      </c>
-      <c r="C607" t="n">
-        <v>65850</v>
-      </c>
-      <c r="D607" t="n">
-        <v>66000</v>
-      </c>
-      <c r="E607" t="n">
-        <v>65800</v>
-      </c>
-      <c r="F607" t="n">
-        <v>71.8613</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-1181.977205880001</v>
-      </c>
-      <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20885,9 +20471,11 @@
         <v>-1122.170205880001</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>65850</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21000,11 +20588,9 @@
         <v>-1071.381105880001</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>66400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21039,11 +20625,9 @@
         <v>-1051.558805880001</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21078,11 +20662,9 @@
         <v>-985.246005880001</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>66500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21117,11 +20699,9 @@
         <v>-968.033229110001</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>66600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -22525,11 +22105,9 @@
         <v>-1079.430027780001</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>67800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22601,20 +22179,16 @@
         <v>-1199.499226750001</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>67850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
+      <c r="L654" t="inlineStr"/>
       <c r="M654" t="inlineStr"/>
     </row>
     <row r="655">
@@ -22640,17 +22214,11 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>67750</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22679,17 +22247,11 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>67850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22718,17 +22280,11 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>67850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22757,17 +22313,11 @@
         <v>-1199.820403690001</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>67850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22796,17 +22346,11 @@
         <v>-1197.455403690001</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>67800</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22835,17 +22379,11 @@
         <v>-1228.050703690001</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>67950</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22874,17 +22412,11 @@
         <v>-1266.364603690001</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>67700</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22913,17 +22445,11 @@
         <v>-1156.506103690001</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22952,17 +22478,11 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22991,17 +22511,11 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23030,17 +22544,11 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23069,17 +22577,11 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23108,17 +22610,11 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23147,17 +22643,11 @@
         <v>-1302.084803690001</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23186,17 +22676,11 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>67400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23225,17 +22709,11 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>67450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23264,17 +22742,11 @@
         <v>-1299.462503690001</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>67450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23303,17 +22775,11 @@
         <v>-1446.471603690001</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23342,17 +22808,11 @@
         <v>-1454.944803690001</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>67150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23386,12 +22846,10 @@
       <c r="I674" t="n">
         <v>67100</v>
       </c>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="n">
+        <v>67100</v>
+      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23425,10 +22883,12 @@
       <c r="I675" t="n">
         <v>67150</v>
       </c>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>67100</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L675" t="n">
@@ -23459,15 +22919,15 @@
         <v>-1203.994803690001</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>67100</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L676" t="n">
@@ -23503,12 +22963,10 @@
       <c r="I677" t="n">
         <v>67200</v>
       </c>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23542,10 +23000,12 @@
       <c r="I678" t="n">
         <v>67300</v>
       </c>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>67200</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L678" t="n">
@@ -23581,7 +23041,9 @@
       <c r="I679" t="n">
         <v>67150</v>
       </c>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>67200</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23620,7 +23082,9 @@
       <c r="I680" t="n">
         <v>67200</v>
       </c>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>67200</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23659,7 +23123,9 @@
       <c r="I681" t="n">
         <v>67050</v>
       </c>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>67200</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23698,7 +23164,9 @@
       <c r="I682" t="n">
         <v>67150</v>
       </c>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>67200</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23737,7 +23205,9 @@
       <c r="I683" t="n">
         <v>66900</v>
       </c>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>67200</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23776,7 +23246,9 @@
       <c r="I684" t="n">
         <v>67150</v>
       </c>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>67200</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23815,7 +23287,9 @@
       <c r="I685" t="n">
         <v>67200</v>
       </c>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>67200</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23854,7 +23328,9 @@
       <c r="I686" t="n">
         <v>67150</v>
       </c>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>67200</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23893,7 +23369,9 @@
       <c r="I687" t="n">
         <v>66950</v>
       </c>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>67200</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23932,7 +23410,9 @@
       <c r="I688" t="n">
         <v>67050</v>
       </c>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>67200</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23971,7 +23451,9 @@
       <c r="I689" t="n">
         <v>67100</v>
       </c>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>67200</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24010,7 +23492,9 @@
       <c r="I690" t="n">
         <v>67100</v>
       </c>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>67200</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24049,7 +23533,9 @@
       <c r="I691" t="n">
         <v>67350</v>
       </c>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>67200</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24088,7 +23574,9 @@
       <c r="I692" t="n">
         <v>67250</v>
       </c>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>67200</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24127,7 +23615,9 @@
       <c r="I693" t="n">
         <v>67250</v>
       </c>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>67200</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24166,7 +23656,9 @@
       <c r="I694" t="n">
         <v>67150</v>
       </c>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>67200</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24205,7 +23697,9 @@
       <c r="I695" t="n">
         <v>67200</v>
       </c>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>67200</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24244,7 +23738,9 @@
       <c r="I696" t="n">
         <v>67250</v>
       </c>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>67200</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24283,7 +23779,9 @@
       <c r="I697" t="n">
         <v>67050</v>
       </c>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>67200</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24322,7 +23820,9 @@
       <c r="I698" t="n">
         <v>67350</v>
       </c>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>67200</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24361,7 +23861,9 @@
       <c r="I699" t="n">
         <v>67250</v>
       </c>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>67200</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24400,7 +23902,9 @@
       <c r="I700" t="n">
         <v>67400</v>
       </c>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>67200</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24434,10 +23938,14 @@
         <v>-1081.477303690001</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J701" t="n">
+        <v>67200</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24474,7 +23982,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>67200</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24511,7 +24021,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>67200</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24548,7 +24060,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>67200</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24585,7 +24099,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>67200</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24622,7 +24138,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>67200</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24659,7 +24177,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>67200</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24696,7 +24216,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>67200</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24733,7 +24255,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>67200</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24770,7 +24294,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>67200</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24807,7 +24333,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>67200</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24844,7 +24372,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>67200</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24881,7 +24411,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>67200</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24918,7 +24450,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>67200</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24955,7 +24489,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>67200</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24992,7 +24528,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>67200</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25029,7 +24567,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>67200</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25066,7 +24606,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>67200</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25103,7 +24645,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>67200</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25140,7 +24684,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>67200</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25177,7 +24723,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>67200</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25214,7 +24762,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>67200</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25251,7 +24801,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>67200</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25288,7 +24840,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>67200</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25325,7 +24879,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>67200</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25362,7 +24918,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>67200</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25399,7 +24957,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>67200</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25436,7 +24996,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>67200</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25473,7 +25035,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>67200</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25507,12 +25071,12 @@
         <v>-1411.354003690001</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>67800</v>
-      </c>
-      <c r="J730" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>67200</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25549,7 +25113,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>67200</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25583,12 +25149,12 @@
         <v>-1416.825303690001</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>67750</v>
-      </c>
-      <c r="J732" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>67200</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25622,12 +25188,12 @@
         <v>-1366.765503690001</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J733" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>67200</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25661,12 +25227,12 @@
         <v>-1735.772703690001</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>67650</v>
-      </c>
-      <c r="J734" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>67200</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25700,12 +25266,12 @@
         <v>-1602.787903690001</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>67350</v>
-      </c>
-      <c r="J735" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>67200</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25739,12 +25305,12 @@
         <v>-1202.787903690001</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J736" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>67200</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25778,12 +25344,12 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>67650</v>
-      </c>
-      <c r="J737" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>67200</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25817,12 +25383,12 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>67850</v>
-      </c>
-      <c r="J738" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>67200</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25856,12 +25422,12 @@
         <v>-1202.369303690001</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>67850</v>
-      </c>
-      <c r="J739" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>67200</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25895,12 +25461,12 @@
         <v>-1098.769303690001</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>67750</v>
-      </c>
-      <c r="J740" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>67200</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25934,12 +25500,12 @@
         <v>-1098.769303690001</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>67900</v>
-      </c>
-      <c r="J741" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>67200</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25973,12 +25539,12 @@
         <v>-1120.821303690001</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>67900</v>
-      </c>
-      <c r="J742" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>67200</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26012,12 +25578,12 @@
         <v>-1020.821303690001</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>67600</v>
-      </c>
-      <c r="J743" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>67200</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26051,12 +25617,12 @@
         <v>-1021.056903690001</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>67750</v>
-      </c>
-      <c r="J744" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>67200</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26090,12 +25656,12 @@
         <v>-1013.180203690001</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>67550</v>
-      </c>
-      <c r="J745" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>67200</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26129,12 +25695,12 @@
         <v>-757.180203690001</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>67750</v>
-      </c>
-      <c r="J746" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>67200</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26168,12 +25734,12 @@
         <v>-761.321203690001</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>67800</v>
-      </c>
-      <c r="J747" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>67200</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26207,12 +25773,12 @@
         <v>-761.321203690001</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>67700</v>
-      </c>
-      <c r="J748" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>67200</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26246,12 +25812,12 @@
         <v>-764.019003690001</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>67700</v>
-      </c>
-      <c r="J749" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>67200</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26285,12 +25851,12 @@
         <v>-563.9934036900011</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J750" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>67200</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26324,12 +25890,12 @@
         <v>-681.741703690001</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>67550</v>
-      </c>
-      <c r="J751" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>67200</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26366,7 +25932,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>67200</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26400,12 +25968,12 @@
         <v>-517.546103690001</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>67350</v>
-      </c>
-      <c r="J753" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>67200</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26442,7 +26010,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>67200</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26476,12 +26046,12 @@
         <v>-531.028003690001</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J755" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>67200</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26515,12 +26085,12 @@
         <v>-531.028003690001</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J756" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>67200</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26554,12 +26124,12 @@
         <v>-529.823403690001</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J757" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>67200</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26593,12 +26163,12 @@
         <v>-516.372803690001</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J758" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>67200</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26632,12 +26202,12 @@
         <v>-511.715703690001</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>67650</v>
-      </c>
-      <c r="J759" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>67200</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26674,7 +26244,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>67200</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26711,7 +26283,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>67200</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26748,7 +26322,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>67200</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26785,7 +26361,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>67200</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26822,7 +26400,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>67200</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26859,7 +26439,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>67200</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26896,7 +26478,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>67200</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26933,7 +26517,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>67200</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26970,7 +26556,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>67200</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27007,7 +26595,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>67200</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27044,7 +26634,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>67200</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27081,7 +26673,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>67200</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27118,7 +26712,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>67200</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27155,7 +26751,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>67200</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27192,7 +26790,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>67200</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27229,7 +26829,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>67200</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27266,7 +26868,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>67200</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27303,7 +26907,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>67200</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27340,7 +26946,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>67200</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27377,7 +26985,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>67200</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27414,7 +27024,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>67200</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27451,7 +27063,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>67200</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27488,7 +27102,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>67200</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27525,7 +27141,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>67200</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27562,7 +27180,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>67200</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27599,7 +27219,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>67200</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27636,7 +27258,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>67200</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27673,7 +27297,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>67200</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27710,7 +27336,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>67200</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27747,7 +27375,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>67200</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27781,12 +27411,12 @@
         <v>-149.7017036900009</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>67650</v>
-      </c>
-      <c r="J790" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>67200</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27823,7 +27453,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>67200</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27860,7 +27492,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>67200</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27897,7 +27531,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>67200</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27934,7 +27570,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>67200</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27971,7 +27609,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>67200</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28008,7 +27648,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>67200</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28045,7 +27687,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>67200</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28082,7 +27726,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>67200</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28119,7 +27765,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>67200</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28156,7 +27804,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>67200</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28193,7 +27843,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>67200</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28230,7 +27882,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>67200</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28267,7 +27921,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>67200</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28304,7 +27960,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>67200</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28341,7 +27999,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>67200</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28378,7 +28038,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>67200</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28415,7 +28077,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>67200</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28452,7 +28116,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>67200</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28489,7 +28155,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>67200</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28526,7 +28194,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>67200</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28563,7 +28233,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>67200</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28600,7 +28272,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>67200</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28637,7 +28311,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>67200</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28674,7 +28350,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>67200</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28711,7 +28389,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>67200</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28748,7 +28428,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>67200</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28785,7 +28467,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>67200</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28822,7 +28506,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>67200</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28859,7 +28545,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>67200</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28893,12 +28581,12 @@
         <v>-968.9231034000009</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>67250</v>
-      </c>
-      <c r="J820" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>67200</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28935,7 +28623,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>67200</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28972,7 +28662,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>67200</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29009,7 +28701,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>67200</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29046,7 +28740,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>67200</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29083,7 +28779,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>67200</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29120,7 +28818,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>67200</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29157,7 +28857,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>67200</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29194,7 +28896,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>67200</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29231,7 +28935,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>67200</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29268,7 +28974,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>67200</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29305,7 +29013,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>67200</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29342,7 +29052,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>67200</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29379,7 +29091,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>67200</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29416,7 +29130,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>67200</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29453,7 +29169,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>67200</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29490,7 +29208,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>67200</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29527,7 +29247,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>67200</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29564,7 +29286,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>67200</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29601,7 +29325,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>67200</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29638,7 +29364,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>67200</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29675,7 +29403,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>67200</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29712,7 +29442,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>67200</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29749,7 +29481,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>67200</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29786,7 +29520,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>67200</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29823,7 +29559,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>67200</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29860,7 +29598,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>67200</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29897,7 +29637,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>67200</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29934,7 +29676,9 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>67200</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29971,7 +29715,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>67200</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30008,7 +29754,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>67200</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30045,7 +29793,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>67200</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30082,7 +29832,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>67200</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30119,7 +29871,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>67200</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30156,7 +29910,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>67200</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30193,7 +29949,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>67200</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30230,7 +29988,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>67200</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30267,7 +30027,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>67200</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30304,7 +30066,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>67200</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30341,7 +30105,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>67200</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30378,7 +30144,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>67200</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30415,7 +30183,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>67200</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30452,7 +30222,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>67200</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30489,7 +30261,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>67200</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30526,7 +30300,9 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>67200</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30563,7 +30339,9 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>67200</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30600,7 +30378,9 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>67200</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30634,12 +30414,12 @@
         <v>-993.5340198300009</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>68250</v>
-      </c>
-      <c r="J867" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>67200</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30673,12 +30453,12 @@
         <v>-989.495819830001</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>68300</v>
-      </c>
-      <c r="J868" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>67200</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30712,12 +30492,12 @@
         <v>-989.495819830001</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>68400</v>
-      </c>
-      <c r="J869" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>67200</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30751,19 +30531,19 @@
         <v>-708.532719830001</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>68400</v>
-      </c>
-      <c r="J870" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>67200</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L870" t="n">
-        <v>1</v>
+        <v>1.018065476190476</v>
       </c>
       <c r="M870" t="inlineStr"/>
     </row>
@@ -30794,11 +30574,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30831,11 +30607,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30864,17 +30636,11 @@
         <v>-346.6913227400011</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>68700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30907,11 +30673,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30944,11 +30706,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30981,11 +30739,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31018,11 +30772,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31055,11 +30805,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31092,11 +30838,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31129,11 +30871,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31166,11 +30904,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31203,11 +30937,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31240,11 +30970,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31277,11 +31003,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31314,11 +31036,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31351,11 +31069,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31388,11 +31102,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31425,11 +31135,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31462,11 +31168,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31499,11 +31201,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31536,11 +31234,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31573,11 +31267,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31610,11 +31300,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31647,11 +31333,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31684,11 +31366,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31721,11 +31399,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31758,11 +31432,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31795,11 +31465,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31832,11 +31498,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31869,11 +31531,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31906,11 +31564,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31943,11 +31597,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31980,11 +31630,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32017,11 +31663,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32054,11 +31696,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32091,11 +31729,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32128,11 +31762,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32165,11 +31795,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -32202,11 +31828,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -32239,11 +31861,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -32276,11 +31894,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32313,11 +31927,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32350,11 +31960,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -32387,11 +31993,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32424,11 +32026,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32461,11 +32059,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32498,11 +32092,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32535,11 +32125,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32572,17 +32158,13 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
       <c r="M919" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest LTC.xlsx
+++ b/BackTest/2020-01-19 BackTest LTC.xlsx
@@ -517,7 +517,7 @@
         <v>624.9915999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>612.2364</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>617.5564000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>835.4199000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>835.3947000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>840.6577000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>842.3661000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>813.6946</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1022.8296</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1842.732</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1961.097</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2626.45319639</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2529.78039639</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2589.29589639</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2815.71999639</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2815.71999639</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2756.76159639</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2766.76159639</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2695.61699639</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2813.01349639</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2758.09679639</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2777.16629639</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2761.86119639</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2798.75829639</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2715.12699639</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2715.12699639</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2791.35539639</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2791.47529639</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2759.823896390001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2803.593396390001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2884.280796390001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2889.200796390001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2889.200796390001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2943.679696390001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2937.058696390001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2827.925296390001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>2861.312096390001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3170.444604329999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3170.452604329999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3071.061704329999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3074.701704329999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2591.24320433</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>2591.251204329999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2611.251204329999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2633.390804329999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2643.390804329999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2643.390804329999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>2643.398804329999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>2634.357561719999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>2633.204661719999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2633.212661719999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>2633.212661719999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>2615.997061719999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>2637.198761719999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>2640.589261719999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>2598.751261719999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>2605.603261719999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2663.770661719999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>2660.851161719999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2661.114361719999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>2661.114361719999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>2660.329261719999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>2661.654261719998</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>2547.335261719998</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>2507.597761719998</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>2507.056261719998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>2517.566261719999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>2517.885961719999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>2517.885961719999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>2590.987361719999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>2575.081661719999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>2555.081661719999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>2546.081661719999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>2443.676261719999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>2307.522961719999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2160.389261719999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>2158.650261719999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1774.557861719999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1628.235661719999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>252.1476479099991</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>228.2672201199991</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>260.0181201199991</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>257.9463201199991</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>257.9463201199991</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>398.2010551099992</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -18337,14 +18337,10 @@
         <v>-601.635609770001</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J544" t="n">
-        <v>67450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
@@ -18377,14 +18373,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>67450</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18416,14 +18406,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>67450</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20432,1392 +20416,1260 @@
         <v>-1181.977205880001</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>65800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>66050</v>
+      </c>
+      <c r="C608" t="n">
+        <v>66300</v>
+      </c>
+      <c r="D608" t="n">
+        <v>66350</v>
+      </c>
+      <c r="E608" t="n">
+        <v>66050</v>
+      </c>
+      <c r="F608" t="n">
+        <v>59.807</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-1122.170205880001</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>66300</v>
+      </c>
+      <c r="C609" t="n">
+        <v>66350</v>
+      </c>
+      <c r="D609" t="n">
+        <v>66350</v>
+      </c>
+      <c r="E609" t="n">
+        <v>66200</v>
+      </c>
+      <c r="F609" t="n">
+        <v>42.8362</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-1079.334005880001</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>66400</v>
+      </c>
+      <c r="C610" t="n">
+        <v>66400</v>
+      </c>
+      <c r="D610" t="n">
+        <v>66400</v>
+      </c>
+      <c r="E610" t="n">
+        <v>66400</v>
+      </c>
+      <c r="F610" t="n">
+        <v>7.9781</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-1071.355905880001</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>66300</v>
+      </c>
+      <c r="C611" t="n">
+        <v>66300</v>
+      </c>
+      <c r="D611" t="n">
+        <v>66300</v>
+      </c>
+      <c r="E611" t="n">
+        <v>66300</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-1071.381105880001</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>66450</v>
+      </c>
+      <c r="C612" t="n">
+        <v>66500</v>
+      </c>
+      <c r="D612" t="n">
+        <v>66500</v>
+      </c>
+      <c r="E612" t="n">
+        <v>66450</v>
+      </c>
+      <c r="F612" t="n">
+        <v>19.8223</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-1051.558805880001</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C613" t="n">
+        <v>66600</v>
+      </c>
+      <c r="D613" t="n">
+        <v>66600</v>
+      </c>
+      <c r="E613" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F613" t="n">
+        <v>66.3128</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-985.246005880001</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>66750</v>
+      </c>
+      <c r="C614" t="n">
+        <v>66750</v>
+      </c>
+      <c r="D614" t="n">
+        <v>66750</v>
+      </c>
+      <c r="E614" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F614" t="n">
+        <v>17.21277677</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-968.033229110001</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C615" t="n">
+        <v>66650</v>
+      </c>
+      <c r="D615" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E615" t="n">
+        <v>66650</v>
+      </c>
+      <c r="F615" t="n">
+        <v>219.266</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-1187.299229110001</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>66600</v>
+      </c>
+      <c r="C616" t="n">
+        <v>66600</v>
+      </c>
+      <c r="D616" t="n">
+        <v>66600</v>
+      </c>
+      <c r="E616" t="n">
+        <v>66600</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-1187.324429110001</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C617" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D617" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E617" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0.7484</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-1186.576029110001</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>66850</v>
+      </c>
+      <c r="C618" t="n">
+        <v>66950</v>
+      </c>
+      <c r="D618" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E618" t="n">
+        <v>66850</v>
+      </c>
+      <c r="F618" t="n">
+        <v>57.7595</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-1128.816529110001</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C619" t="n">
+        <v>66950</v>
+      </c>
+      <c r="D619" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E619" t="n">
+        <v>66950</v>
+      </c>
+      <c r="F619" t="n">
+        <v>16.7422</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-1128.816529110001</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C620" t="n">
+        <v>66850</v>
+      </c>
+      <c r="D620" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E620" t="n">
+        <v>66850</v>
+      </c>
+      <c r="F620" t="n">
+        <v>13.0559</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-1141.872429110001</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>66900</v>
+      </c>
+      <c r="C621" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D621" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E621" t="n">
+        <v>66900</v>
+      </c>
+      <c r="F621" t="n">
+        <v>7.5001</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-1134.372329110001</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>67100</v>
+      </c>
+      <c r="C622" t="n">
+        <v>67100</v>
+      </c>
+      <c r="D622" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E622" t="n">
+        <v>67100</v>
+      </c>
+      <c r="F622" t="n">
+        <v>46.5905</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-1087.781829110001</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C623" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D623" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E623" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F623" t="n">
+        <v>3.6051</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-1091.386929110001</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C624" t="n">
+        <v>67150</v>
+      </c>
+      <c r="D624" t="n">
+        <v>67150</v>
+      </c>
+      <c r="E624" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1.298</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-1090.088929110001</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>67250</v>
+      </c>
+      <c r="C625" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D625" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E625" t="n">
+        <v>67250</v>
+      </c>
+      <c r="F625" t="n">
+        <v>52.1217</v>
+      </c>
+      <c r="G625" t="n">
+        <v>-1037.967229110001</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="n">
+        <v>1</v>
+      </c>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C626" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D626" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E626" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F626" t="n">
+        <v>110.3227</v>
+      </c>
+      <c r="G626" t="n">
+        <v>-1037.967229110001</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C627" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D627" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E627" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F627" t="n">
+        <v>24.0261</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-1061.993329110001</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C628" t="n">
+        <v>67650</v>
+      </c>
+      <c r="D628" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E628" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F628" t="n">
+        <v>122.44940133</v>
+      </c>
+      <c r="G628" t="n">
+        <v>-939.5439277800015</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C629" t="n">
+        <v>67550</v>
+      </c>
+      <c r="D629" t="n">
+        <v>67550</v>
+      </c>
+      <c r="E629" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F629" t="n">
+        <v>2.9608</v>
+      </c>
+      <c r="G629" t="n">
+        <v>-942.5047277800014</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C630" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D630" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E630" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F630" t="n">
+        <v>100</v>
+      </c>
+      <c r="G630" t="n">
+        <v>-1042.504727780001</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C631" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D631" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E631" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F631" t="n">
+        <v>19.9079</v>
+      </c>
+      <c r="G631" t="n">
+        <v>-1062.412627780001</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C632" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D632" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E632" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F632" t="n">
+        <v>143.5599</v>
+      </c>
+      <c r="G632" t="n">
+        <v>-918.8527277800013</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C633" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D633" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E633" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F633" t="n">
+        <v>34.0443</v>
+      </c>
+      <c r="G633" t="n">
+        <v>-884.8084277800012</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C634" t="n">
+        <v>67750</v>
+      </c>
+      <c r="D634" t="n">
+        <v>67750</v>
+      </c>
+      <c r="E634" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.1477</v>
+      </c>
+      <c r="G634" t="n">
+        <v>-884.9561277800012</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C635" t="n">
+        <v>67800</v>
+      </c>
+      <c r="D635" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E635" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F635" t="n">
+        <v>14.0432</v>
+      </c>
+      <c r="G635" t="n">
+        <v>-870.9129277800013</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>67650</v>
+      </c>
+      <c r="C636" t="n">
+        <v>67650</v>
+      </c>
+      <c r="D636" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E636" t="n">
+        <v>67650</v>
+      </c>
+      <c r="F636" t="n">
+        <v>157.7611</v>
+      </c>
+      <c r="G636" t="n">
+        <v>-1028.674027780001</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C637" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D637" t="n">
+        <v>67550</v>
+      </c>
+      <c r="E637" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F637" t="n">
+        <v>5</v>
+      </c>
+      <c r="G637" t="n">
+        <v>-1033.674027780001</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>67650</v>
+      </c>
+      <c r="C638" t="n">
+        <v>67650</v>
+      </c>
+      <c r="D638" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E638" t="n">
+        <v>67650</v>
+      </c>
+      <c r="F638" t="n">
+        <v>15.8682</v>
+      </c>
+      <c r="G638" t="n">
+        <v>-1017.805827780001</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C639" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D639" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E639" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F639" t="n">
+        <v>38.6316</v>
+      </c>
+      <c r="G639" t="n">
+        <v>-1056.437427780001</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C640" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D640" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E640" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1.6984</v>
+      </c>
+      <c r="G640" t="n">
+        <v>-1058.135827780001</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C641" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D641" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E641" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F641" t="n">
+        <v>6.812</v>
+      </c>
+      <c r="G641" t="n">
+        <v>-1064.947827780001</v>
+      </c>
+      <c r="H641" t="n">
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>67400</v>
+      </c>
+      <c r="J641" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C642" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D642" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E642" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.9424</v>
+      </c>
+      <c r="G642" t="n">
+        <v>-1064.947827780001</v>
+      </c>
+      <c r="H642" t="n">
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J642" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C643" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D643" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E643" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G643" t="n">
+        <v>-1064.947827780001</v>
+      </c>
+      <c r="H643" t="n">
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J643" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C644" t="n">
+        <v>67250</v>
+      </c>
+      <c r="D644" t="n">
+        <v>67250</v>
+      </c>
+      <c r="E644" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F644" t="n">
+        <v>29.2017</v>
+      </c>
+      <c r="G644" t="n">
+        <v>-1094.149527780001</v>
+      </c>
+      <c r="H644" t="n">
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J644" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K644" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>66050</v>
-      </c>
-      <c r="C608" t="n">
-        <v>66300</v>
-      </c>
-      <c r="D608" t="n">
-        <v>66350</v>
-      </c>
-      <c r="E608" t="n">
-        <v>66050</v>
-      </c>
-      <c r="F608" t="n">
-        <v>59.807</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-1122.170205880001</v>
-      </c>
-      <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>65850</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>66300</v>
-      </c>
-      <c r="C609" t="n">
-        <v>66350</v>
-      </c>
-      <c r="D609" t="n">
-        <v>66350</v>
-      </c>
-      <c r="E609" t="n">
-        <v>66200</v>
-      </c>
-      <c r="F609" t="n">
-        <v>42.8362</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-1079.334005880001</v>
-      </c>
-      <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>66400</v>
-      </c>
-      <c r="C610" t="n">
-        <v>66400</v>
-      </c>
-      <c r="D610" t="n">
-        <v>66400</v>
-      </c>
-      <c r="E610" t="n">
-        <v>66400</v>
-      </c>
-      <c r="F610" t="n">
-        <v>7.9781</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-1071.355905880001</v>
-      </c>
-      <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>66350</v>
-      </c>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>66300</v>
-      </c>
-      <c r="C611" t="n">
-        <v>66300</v>
-      </c>
-      <c r="D611" t="n">
-        <v>66300</v>
-      </c>
-      <c r="E611" t="n">
-        <v>66300</v>
-      </c>
-      <c r="F611" t="n">
-        <v>0.0252</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-1071.381105880001</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>66450</v>
-      </c>
-      <c r="C612" t="n">
-        <v>66500</v>
-      </c>
-      <c r="D612" t="n">
-        <v>66500</v>
-      </c>
-      <c r="E612" t="n">
-        <v>66450</v>
-      </c>
-      <c r="F612" t="n">
-        <v>19.8223</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-1051.558805880001</v>
-      </c>
-      <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C613" t="n">
-        <v>66600</v>
-      </c>
-      <c r="D613" t="n">
-        <v>66600</v>
-      </c>
-      <c r="E613" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F613" t="n">
-        <v>66.3128</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-985.246005880001</v>
-      </c>
-      <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>66750</v>
-      </c>
-      <c r="C614" t="n">
-        <v>66750</v>
-      </c>
-      <c r="D614" t="n">
-        <v>66750</v>
-      </c>
-      <c r="E614" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F614" t="n">
-        <v>17.21277677</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-968.033229110001</v>
-      </c>
-      <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>66800</v>
-      </c>
-      <c r="C615" t="n">
-        <v>66650</v>
-      </c>
-      <c r="D615" t="n">
-        <v>66800</v>
-      </c>
-      <c r="E615" t="n">
-        <v>66650</v>
-      </c>
-      <c r="F615" t="n">
-        <v>219.266</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-1187.299229110001</v>
-      </c>
-      <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>66600</v>
-      </c>
-      <c r="C616" t="n">
-        <v>66600</v>
-      </c>
-      <c r="D616" t="n">
-        <v>66600</v>
-      </c>
-      <c r="E616" t="n">
-        <v>66600</v>
-      </c>
-      <c r="F616" t="n">
-        <v>0.0252</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-1187.324429110001</v>
-      </c>
-      <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>66800</v>
-      </c>
-      <c r="C617" t="n">
-        <v>66800</v>
-      </c>
-      <c r="D617" t="n">
-        <v>66800</v>
-      </c>
-      <c r="E617" t="n">
-        <v>66800</v>
-      </c>
-      <c r="F617" t="n">
-        <v>0.7484</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-1186.576029110001</v>
-      </c>
-      <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>66850</v>
-      </c>
-      <c r="C618" t="n">
-        <v>66950</v>
-      </c>
-      <c r="D618" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E618" t="n">
-        <v>66850</v>
-      </c>
-      <c r="F618" t="n">
-        <v>57.7595</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-1128.816529110001</v>
-      </c>
-      <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>66950</v>
-      </c>
-      <c r="C619" t="n">
-        <v>66950</v>
-      </c>
-      <c r="D619" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E619" t="n">
-        <v>66950</v>
-      </c>
-      <c r="F619" t="n">
-        <v>16.7422</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-1128.816529110001</v>
-      </c>
-      <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>67000</v>
-      </c>
-      <c r="C620" t="n">
-        <v>66850</v>
-      </c>
-      <c r="D620" t="n">
-        <v>67100</v>
-      </c>
-      <c r="E620" t="n">
-        <v>66850</v>
-      </c>
-      <c r="F620" t="n">
-        <v>13.0559</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-1141.872429110001</v>
-      </c>
-      <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>66900</v>
-      </c>
-      <c r="C621" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D621" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E621" t="n">
-        <v>66900</v>
-      </c>
-      <c r="F621" t="n">
-        <v>7.5001</v>
-      </c>
-      <c r="G621" t="n">
-        <v>-1134.372329110001</v>
-      </c>
-      <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>67100</v>
-      </c>
-      <c r="C622" t="n">
-        <v>67100</v>
-      </c>
-      <c r="D622" t="n">
-        <v>67100</v>
-      </c>
-      <c r="E622" t="n">
-        <v>67100</v>
-      </c>
-      <c r="F622" t="n">
-        <v>46.5905</v>
-      </c>
-      <c r="G622" t="n">
-        <v>-1087.781829110001</v>
-      </c>
-      <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>67000</v>
-      </c>
-      <c r="C623" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D623" t="n">
-        <v>67000</v>
-      </c>
-      <c r="E623" t="n">
-        <v>67000</v>
-      </c>
-      <c r="F623" t="n">
-        <v>3.6051</v>
-      </c>
-      <c r="G623" t="n">
-        <v>-1091.386929110001</v>
-      </c>
-      <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>67150</v>
-      </c>
-      <c r="C624" t="n">
-        <v>67150</v>
-      </c>
-      <c r="D624" t="n">
-        <v>67150</v>
-      </c>
-      <c r="E624" t="n">
-        <v>67150</v>
-      </c>
-      <c r="F624" t="n">
-        <v>1.298</v>
-      </c>
-      <c r="G624" t="n">
-        <v>-1090.088929110001</v>
-      </c>
-      <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>67250</v>
-      </c>
-      <c r="C625" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D625" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E625" t="n">
-        <v>67250</v>
-      </c>
-      <c r="F625" t="n">
-        <v>52.1217</v>
-      </c>
-      <c r="G625" t="n">
-        <v>-1037.967229110001</v>
-      </c>
-      <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L625" t="n">
-        <v>1</v>
-      </c>
-      <c r="M625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C626" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D626" t="n">
-        <v>67650</v>
-      </c>
-      <c r="E626" t="n">
-        <v>67350</v>
-      </c>
-      <c r="F626" t="n">
-        <v>110.3227</v>
-      </c>
-      <c r="G626" t="n">
-        <v>-1037.967229110001</v>
-      </c>
-      <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>67450</v>
-      </c>
-      <c r="C627" t="n">
-        <v>67450</v>
-      </c>
-      <c r="D627" t="n">
-        <v>67450</v>
-      </c>
-      <c r="E627" t="n">
-        <v>67450</v>
-      </c>
-      <c r="F627" t="n">
-        <v>24.0261</v>
-      </c>
-      <c r="G627" t="n">
-        <v>-1061.993329110001</v>
-      </c>
-      <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C628" t="n">
-        <v>67650</v>
-      </c>
-      <c r="D628" t="n">
-        <v>67650</v>
-      </c>
-      <c r="E628" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F628" t="n">
-        <v>122.44940133</v>
-      </c>
-      <c r="G628" t="n">
-        <v>-939.5439277800015</v>
-      </c>
-      <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C629" t="n">
-        <v>67550</v>
-      </c>
-      <c r="D629" t="n">
-        <v>67550</v>
-      </c>
-      <c r="E629" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F629" t="n">
-        <v>2.9608</v>
-      </c>
-      <c r="G629" t="n">
-        <v>-942.5047277800014</v>
-      </c>
-      <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C630" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D630" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E630" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F630" t="n">
-        <v>100</v>
-      </c>
-      <c r="G630" t="n">
-        <v>-1042.504727780001</v>
-      </c>
-      <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>67450</v>
-      </c>
-      <c r="C631" t="n">
-        <v>67450</v>
-      </c>
-      <c r="D631" t="n">
-        <v>67450</v>
-      </c>
-      <c r="E631" t="n">
-        <v>67450</v>
-      </c>
-      <c r="F631" t="n">
-        <v>19.9079</v>
-      </c>
-      <c r="G631" t="n">
-        <v>-1062.412627780001</v>
-      </c>
-      <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C632" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D632" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E632" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F632" t="n">
-        <v>143.5599</v>
-      </c>
-      <c r="G632" t="n">
-        <v>-918.8527277800013</v>
-      </c>
-      <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>67750</v>
-      </c>
-      <c r="C633" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D633" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E633" t="n">
-        <v>67750</v>
-      </c>
-      <c r="F633" t="n">
-        <v>34.0443</v>
-      </c>
-      <c r="G633" t="n">
-        <v>-884.8084277800012</v>
-      </c>
-      <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>67750</v>
-      </c>
-      <c r="C634" t="n">
-        <v>67750</v>
-      </c>
-      <c r="D634" t="n">
-        <v>67750</v>
-      </c>
-      <c r="E634" t="n">
-        <v>67750</v>
-      </c>
-      <c r="F634" t="n">
-        <v>0.1477</v>
-      </c>
-      <c r="G634" t="n">
-        <v>-884.9561277800012</v>
-      </c>
-      <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>67700</v>
-      </c>
-      <c r="C635" t="n">
-        <v>67800</v>
-      </c>
-      <c r="D635" t="n">
-        <v>67800</v>
-      </c>
-      <c r="E635" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F635" t="n">
-        <v>14.0432</v>
-      </c>
-      <c r="G635" t="n">
-        <v>-870.9129277800013</v>
-      </c>
-      <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>67650</v>
-      </c>
-      <c r="C636" t="n">
-        <v>67650</v>
-      </c>
-      <c r="D636" t="n">
-        <v>67650</v>
-      </c>
-      <c r="E636" t="n">
-        <v>67650</v>
-      </c>
-      <c r="F636" t="n">
-        <v>157.7611</v>
-      </c>
-      <c r="G636" t="n">
-        <v>-1028.674027780001</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C637" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D637" t="n">
-        <v>67550</v>
-      </c>
-      <c r="E637" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F637" t="n">
-        <v>5</v>
-      </c>
-      <c r="G637" t="n">
-        <v>-1033.674027780001</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>67650</v>
-      </c>
-      <c r="C638" t="n">
-        <v>67650</v>
-      </c>
-      <c r="D638" t="n">
-        <v>67650</v>
-      </c>
-      <c r="E638" t="n">
-        <v>67650</v>
-      </c>
-      <c r="F638" t="n">
-        <v>15.8682</v>
-      </c>
-      <c r="G638" t="n">
-        <v>-1017.805827780001</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C639" t="n">
-        <v>67450</v>
-      </c>
-      <c r="D639" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E639" t="n">
-        <v>67450</v>
-      </c>
-      <c r="F639" t="n">
-        <v>38.6316</v>
-      </c>
-      <c r="G639" t="n">
-        <v>-1056.437427780001</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>67450</v>
-      </c>
-      <c r="C640" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D640" t="n">
-        <v>67450</v>
-      </c>
-      <c r="E640" t="n">
-        <v>67400</v>
-      </c>
-      <c r="F640" t="n">
-        <v>1.6984</v>
-      </c>
-      <c r="G640" t="n">
-        <v>-1058.135827780001</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C641" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D641" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E641" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F641" t="n">
-        <v>6.812</v>
-      </c>
-      <c r="G641" t="n">
-        <v>-1064.947827780001</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C642" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D642" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E642" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F642" t="n">
-        <v>0.9424</v>
-      </c>
-      <c r="G642" t="n">
-        <v>-1064.947827780001</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C643" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D643" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E643" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F643" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G643" t="n">
-        <v>-1064.947827780001</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>67150</v>
-      </c>
-      <c r="C644" t="n">
-        <v>67250</v>
-      </c>
-      <c r="D644" t="n">
-        <v>67250</v>
-      </c>
-      <c r="E644" t="n">
-        <v>67150</v>
-      </c>
-      <c r="F644" t="n">
-        <v>29.2017</v>
-      </c>
-      <c r="G644" t="n">
-        <v>-1094.149527780001</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21846,10 +21698,14 @@
         <v>-1093.549527780001</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>67250</v>
+      </c>
+      <c r="J645" t="n">
+        <v>67400</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21883,10 +21739,14 @@
         <v>-1083.563127780001</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>67350</v>
+      </c>
+      <c r="J646" t="n">
+        <v>67400</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21920,10 +21780,14 @@
         <v>-1075.563127780001</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>67450</v>
+      </c>
+      <c r="J647" t="n">
+        <v>67400</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21957,10 +21821,14 @@
         <v>-1075.549927780001</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J648" t="n">
+        <v>67400</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21994,10 +21862,14 @@
         <v>-1085.549927780001</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>67750</v>
+      </c>
+      <c r="J649" t="n">
+        <v>67400</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22031,10 +21903,14 @@
         <v>-1081.273927780001</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J650" t="n">
+        <v>67400</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22068,10 +21944,14 @@
         <v>-1079.430027780001</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>67650</v>
+      </c>
+      <c r="J651" t="n">
+        <v>67400</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22105,10 +21985,14 @@
         <v>-1079.430027780001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J652" t="n">
+        <v>67400</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22142,10 +22026,14 @@
         <v>-979.3646267500012</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J653" t="n">
+        <v>67400</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22179,16 +22067,22 @@
         <v>-1199.499226750001</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J654" t="n">
+        <v>67400</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
       <c r="M654" t="inlineStr"/>
     </row>
     <row r="655">
@@ -22214,11 +22108,19 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>67750</v>
+      </c>
+      <c r="J655" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22247,11 +22149,19 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J656" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22280,11 +22190,19 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J657" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22313,11 +22231,19 @@
         <v>-1199.820403690001</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J658" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22346,11 +22272,19 @@
         <v>-1197.455403690001</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J659" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22379,11 +22313,19 @@
         <v>-1228.050703690001</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>67950</v>
+      </c>
+      <c r="J660" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22412,11 +22354,19 @@
         <v>-1266.364603690001</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>67700</v>
+      </c>
+      <c r="J661" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22445,11 +22395,19 @@
         <v>-1156.506103690001</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>67650</v>
+      </c>
+      <c r="J662" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22478,11 +22436,19 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>67700</v>
+      </c>
+      <c r="J663" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22511,11 +22477,19 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J664" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22544,11 +22518,19 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J665" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22577,11 +22559,19 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J666" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22610,11 +22600,19 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J667" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22643,11 +22641,19 @@
         <v>-1302.084803690001</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J668" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22676,11 +22682,19 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>67400</v>
+      </c>
+      <c r="J669" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22709,11 +22723,19 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>67450</v>
+      </c>
+      <c r="J670" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22742,11 +22764,19 @@
         <v>-1299.462503690001</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>67450</v>
+      </c>
+      <c r="J671" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22775,11 +22805,19 @@
         <v>-1446.471603690001</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J672" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22808,11 +22846,19 @@
         <v>-1454.944803690001</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J673" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22847,9 +22893,13 @@
         <v>67100</v>
       </c>
       <c r="J674" t="n">
-        <v>67100</v>
-      </c>
-      <c r="K674" t="inlineStr"/>
+        <v>67400</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22884,11 +22934,11 @@
         <v>67150</v>
       </c>
       <c r="J675" t="n">
-        <v>67100</v>
+        <v>67400</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L675" t="n">
@@ -22919,15 +22969,17 @@
         <v>-1203.994803690001</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>67400</v>
+      </c>
       <c r="J676" t="n">
-        <v>67100</v>
+        <v>67400</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L676" t="n">
@@ -22964,9 +23016,13 @@
         <v>67200</v>
       </c>
       <c r="J677" t="n">
-        <v>67200</v>
-      </c>
-      <c r="K677" t="inlineStr"/>
+        <v>67400</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23001,11 +23057,11 @@
         <v>67300</v>
       </c>
       <c r="J678" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L678" t="n">
@@ -23042,7 +23098,7 @@
         <v>67150</v>
       </c>
       <c r="J679" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23083,7 +23139,7 @@
         <v>67200</v>
       </c>
       <c r="J680" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23124,7 +23180,7 @@
         <v>67050</v>
       </c>
       <c r="J681" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23165,7 +23221,7 @@
         <v>67150</v>
       </c>
       <c r="J682" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23206,7 +23262,7 @@
         <v>66900</v>
       </c>
       <c r="J683" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23247,7 +23303,7 @@
         <v>67150</v>
       </c>
       <c r="J684" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23288,7 +23344,7 @@
         <v>67200</v>
       </c>
       <c r="J685" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23329,7 +23385,7 @@
         <v>67150</v>
       </c>
       <c r="J686" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23370,7 +23426,7 @@
         <v>66950</v>
       </c>
       <c r="J687" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23411,7 +23467,7 @@
         <v>67050</v>
       </c>
       <c r="J688" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23452,7 +23508,7 @@
         <v>67100</v>
       </c>
       <c r="J689" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23493,7 +23549,7 @@
         <v>67100</v>
       </c>
       <c r="J690" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23534,7 +23590,7 @@
         <v>67350</v>
       </c>
       <c r="J691" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23575,7 +23631,7 @@
         <v>67250</v>
       </c>
       <c r="J692" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23616,7 +23672,7 @@
         <v>67250</v>
       </c>
       <c r="J693" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23657,7 +23713,7 @@
         <v>67150</v>
       </c>
       <c r="J694" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23698,7 +23754,7 @@
         <v>67200</v>
       </c>
       <c r="J695" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23739,7 +23795,7 @@
         <v>67250</v>
       </c>
       <c r="J696" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23780,7 +23836,7 @@
         <v>67050</v>
       </c>
       <c r="J697" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -23821,7 +23877,7 @@
         <v>67350</v>
       </c>
       <c r="J698" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -23862,7 +23918,7 @@
         <v>67250</v>
       </c>
       <c r="J699" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -23903,7 +23959,7 @@
         <v>67400</v>
       </c>
       <c r="J700" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -23944,7 +24000,7 @@
         <v>67500</v>
       </c>
       <c r="J701" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -23979,11 +24035,13 @@
         <v>-1064.734703690001</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>67500</v>
+      </c>
       <c r="J702" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24018,11 +24076,13 @@
         <v>-1110.300203690001</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>67600</v>
+      </c>
       <c r="J703" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24057,11 +24117,13 @@
         <v>-1480.989903690001</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>67500</v>
+      </c>
       <c r="J704" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24096,11 +24158,13 @@
         <v>-1476.950003690001</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>67400</v>
+      </c>
       <c r="J705" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24135,11 +24199,13 @@
         <v>-1476.950003690001</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>67550</v>
+      </c>
       <c r="J706" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24174,11 +24240,13 @@
         <v>-1486.950003690001</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>67550</v>
+      </c>
       <c r="J707" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24213,11 +24281,13 @@
         <v>-1486.950003690001</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>67500</v>
+      </c>
       <c r="J708" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24252,11 +24322,13 @@
         <v>-1490.946803690001</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>67500</v>
+      </c>
       <c r="J709" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24291,11 +24363,13 @@
         <v>-1493.919803690001</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>67350</v>
+      </c>
       <c r="J710" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24330,11 +24404,13 @@
         <v>-1429.059603690001</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>67300</v>
+      </c>
       <c r="J711" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24369,11 +24445,13 @@
         <v>-1420.524503690001</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>67450</v>
+      </c>
       <c r="J712" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24408,11 +24486,13 @@
         <v>-1410.781403690001</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>67700</v>
+      </c>
       <c r="J713" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24447,11 +24527,13 @@
         <v>-1401.781403690001</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>67750</v>
+      </c>
       <c r="J714" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24486,11 +24568,13 @@
         <v>-1402.572403690001</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>67800</v>
+      </c>
       <c r="J715" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24525,11 +24609,13 @@
         <v>-1056.058603690001</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>67650</v>
+      </c>
       <c r="J716" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24564,11 +24650,13 @@
         <v>-1078.784803690001</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>67950</v>
+      </c>
       <c r="J717" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24603,11 +24691,13 @@
         <v>-1033.901503690001</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>67900</v>
+      </c>
       <c r="J718" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24642,11 +24732,13 @@
         <v>-936.7168036900009</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>68150</v>
+      </c>
       <c r="J719" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24685,7 +24777,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24724,7 +24816,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24763,7 +24855,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -24802,7 +24894,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -24841,7 +24933,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -24876,11 +24968,13 @@
         <v>-1180.376903690001</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>68000</v>
+      </c>
       <c r="J725" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -24915,11 +25009,13 @@
         <v>-1300.124503690001</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>68000</v>
+      </c>
       <c r="J726" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -24954,11 +25050,13 @@
         <v>-1279.615503690001</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>67900</v>
+      </c>
       <c r="J727" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -24993,11 +25091,13 @@
         <v>-1340.117303690001</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>68000</v>
+      </c>
       <c r="J728" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25032,11 +25132,13 @@
         <v>-1413.133503690001</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>67900</v>
+      </c>
       <c r="J729" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25071,11 +25173,13 @@
         <v>-1411.354003690001</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>67800</v>
+      </c>
       <c r="J730" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25110,11 +25214,13 @@
         <v>-1411.976003690001</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>67900</v>
+      </c>
       <c r="J731" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25149,11 +25255,13 @@
         <v>-1416.825303690001</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>67750</v>
+      </c>
       <c r="J732" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25188,11 +25296,13 @@
         <v>-1366.765503690001</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>67450</v>
+      </c>
       <c r="J733" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25227,11 +25337,13 @@
         <v>-1735.772703690001</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>67650</v>
+      </c>
       <c r="J734" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25266,11 +25378,13 @@
         <v>-1602.787903690001</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>67350</v>
+      </c>
       <c r="J735" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -25305,11 +25419,13 @@
         <v>-1202.787903690001</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>67500</v>
+      </c>
       <c r="J736" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25344,11 +25460,13 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>67650</v>
+      </c>
       <c r="J737" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25383,11 +25501,13 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>67850</v>
+      </c>
       <c r="J738" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25422,11 +25542,13 @@
         <v>-1202.369303690001</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>67850</v>
+      </c>
       <c r="J739" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25461,11 +25583,13 @@
         <v>-1098.769303690001</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>67750</v>
+      </c>
       <c r="J740" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25504,7 +25628,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25543,7 +25667,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25582,7 +25706,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -25621,7 +25745,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -25660,7 +25784,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -25699,7 +25823,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -25738,7 +25862,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -25777,7 +25901,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -25816,7 +25940,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -25855,7 +25979,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -25894,7 +26018,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -25933,7 +26057,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -25972,7 +26096,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26011,7 +26135,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26050,7 +26174,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26089,7 +26213,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26128,7 +26252,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -26167,7 +26291,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -26206,7 +26330,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -26245,7 +26369,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -26284,7 +26408,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -26323,7 +26447,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -26362,7 +26486,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -26401,7 +26525,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -26440,7 +26564,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -26479,7 +26603,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -26518,7 +26642,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26557,7 +26681,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26596,7 +26720,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -26635,7 +26759,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -26674,7 +26798,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -26713,7 +26837,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -26752,7 +26876,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -26791,7 +26915,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -26830,7 +26954,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -26869,7 +26993,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -26908,7 +27032,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -26947,7 +27071,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -26986,7 +27110,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -27025,7 +27149,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -27064,7 +27188,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -27103,7 +27227,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -27142,7 +27266,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -27181,7 +27305,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -27220,7 +27344,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -27259,7 +27383,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -27298,7 +27422,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -27337,7 +27461,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -27376,7 +27500,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -27415,7 +27539,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -27454,7 +27578,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -27493,7 +27617,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -27532,7 +27656,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -27571,7 +27695,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -27610,7 +27734,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -27649,7 +27773,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -27688,7 +27812,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -27727,7 +27851,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -27766,7 +27890,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -27805,7 +27929,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -27844,7 +27968,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -27883,7 +28007,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -27922,7 +28046,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -27961,7 +28085,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -28000,7 +28124,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -28039,7 +28163,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -28078,7 +28202,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -28117,7 +28241,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -28156,7 +28280,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -28195,7 +28319,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -28234,7 +28358,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -28273,7 +28397,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -28312,7 +28436,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -28351,7 +28475,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -28390,7 +28514,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -28429,7 +28553,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -28468,7 +28592,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -28507,7 +28631,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -28546,7 +28670,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -28585,7 +28709,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -28624,7 +28748,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -28663,7 +28787,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -28702,7 +28826,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -28741,7 +28865,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -28780,7 +28904,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -28819,7 +28943,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -28858,7 +28982,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28897,7 +29021,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28936,7 +29060,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28975,7 +29099,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -29014,7 +29138,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -29053,7 +29177,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -29092,7 +29216,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -29131,7 +29255,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -29170,7 +29294,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -29209,7 +29333,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -29248,7 +29372,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -29287,7 +29411,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -29326,7 +29450,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -29365,7 +29489,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -29404,7 +29528,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -29443,7 +29567,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -29482,7 +29606,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -29521,7 +29645,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -29560,7 +29684,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -29599,7 +29723,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -29638,7 +29762,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -29677,7 +29801,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -29716,7 +29840,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -29755,7 +29879,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -29794,7 +29918,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -29833,7 +29957,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -29872,7 +29996,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -29911,7 +30035,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -29950,7 +30074,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -29989,7 +30113,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -30028,7 +30152,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -30067,7 +30191,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -30106,7 +30230,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -30145,7 +30269,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -30184,7 +30308,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -30223,7 +30347,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -30262,7 +30386,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -30301,7 +30425,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -30340,7 +30464,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -30379,7 +30503,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -30418,7 +30542,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -30457,7 +30581,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -30496,7 +30620,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -30531,19 +30655,19 @@
         <v>-708.532719830001</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L870" t="n">
-        <v>1.018065476190476</v>
+        <v>1</v>
       </c>
       <c r="M870" t="inlineStr"/>
     </row>
@@ -30573,8 +30697,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30606,8 +30736,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30639,8 +30775,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30672,8 +30814,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30705,8 +30853,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30738,8 +30892,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30771,8 +30931,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30804,8 +30970,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30837,8 +31009,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30870,8 +31048,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30903,8 +31087,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30936,8 +31126,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30969,8 +31165,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31002,8 +31204,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31035,8 +31243,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31068,8 +31282,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31101,8 +31321,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31134,8 +31360,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31167,8 +31399,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31200,8 +31438,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31233,8 +31477,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31266,8 +31516,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31299,8 +31555,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31332,8 +31594,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31365,8 +31633,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31398,8 +31672,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31431,8 +31711,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31464,8 +31750,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31497,8 +31789,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31530,8 +31828,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31563,8 +31867,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31596,8 +31906,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31629,8 +31945,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31662,8 +31984,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31695,8 +32023,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31728,8 +32062,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31761,8 +32101,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31794,8 +32140,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31827,8 +32179,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31860,8 +32218,14 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31893,8 +32257,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31926,8 +32296,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31959,8 +32335,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31992,8 +32374,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32025,8 +32413,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32058,8 +32452,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32091,8 +32491,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32124,8 +32530,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32157,8 +32569,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
